--- a/Client/Assets/11. GameData/Pass.xlsx
+++ b/Client/Assets/11. GameData/Pass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Download2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459E1DEC-1167-44DB-AE26-5BD4F9D8A6A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC550117-408E-45B1-8C23-538CA254D229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27990" windowHeight="16440" tabRatio="535" activeTab="2" xr2:uid="{E3B10073-6739-413D-9047-29D24A9ED330}"/>
+    <workbookView xWindow="5055" yWindow="0" windowWidth="15465" windowHeight="13110" tabRatio="535" activeTab="1" xr2:uid="{E3B10073-6739-413D-9047-29D24A9ED330}"/>
   </bookViews>
   <sheets>
     <sheet name="Pass_Info" sheetId="4" r:id="rId1"/>
@@ -139,7 +139,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="82">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -455,7 +455,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -485,14 +485,6 @@
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -624,10 +616,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1160,10 +1152,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A74E4F3-3BB8-4CF3-AC0A-3F86C309575D}">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1223,11 +1215,11 @@
       <c r="E2" s="3">
         <v>1</v>
       </c>
-      <c r="F2" s="15">
-        <v>0</v>
-      </c>
-      <c r="G2" s="15">
-        <v>0</v>
+      <c r="F2" s="9">
+        <v>100001</v>
+      </c>
+      <c r="G2" s="9">
+        <v>800</v>
       </c>
       <c r="H2" s="4">
         <v>45573</v>
@@ -1252,11 +1244,11 @@
       <c r="E3" s="3">
         <v>1</v>
       </c>
-      <c r="F3" s="15">
-        <v>0</v>
-      </c>
-      <c r="G3" s="15">
-        <v>0</v>
+      <c r="F3" s="9">
+        <v>100001</v>
+      </c>
+      <c r="G3" s="9">
+        <v>800</v>
       </c>
       <c r="H3" s="4">
         <v>45573</v>
@@ -1281,11 +1273,11 @@
       <c r="E4" s="3">
         <v>1</v>
       </c>
-      <c r="F4" s="15">
-        <v>0</v>
-      </c>
-      <c r="G4" s="15">
-        <v>0</v>
+      <c r="F4" s="16">
+        <v>341003</v>
+      </c>
+      <c r="G4" s="9">
+        <v>1</v>
       </c>
       <c r="H4" s="4">
         <v>45573</v>
@@ -1310,11 +1302,11 @@
       <c r="E5" s="3">
         <v>1</v>
       </c>
-      <c r="F5" s="15">
-        <v>0</v>
-      </c>
-      <c r="G5" s="15">
-        <v>0</v>
+      <c r="F5" s="9">
+        <v>100001</v>
+      </c>
+      <c r="G5" s="9">
+        <v>800</v>
       </c>
       <c r="H5" s="4">
         <v>45573</v>
@@ -1339,11 +1331,11 @@
       <c r="E6" s="3">
         <v>1</v>
       </c>
-      <c r="F6" s="15">
-        <v>0</v>
-      </c>
-      <c r="G6" s="15">
-        <v>0</v>
+      <c r="F6" s="9">
+        <v>100001</v>
+      </c>
+      <c r="G6" s="9">
+        <v>800</v>
       </c>
       <c r="H6" s="4">
         <v>45573</v>
@@ -1368,11 +1360,11 @@
       <c r="E7" s="3">
         <v>1</v>
       </c>
-      <c r="F7" s="15">
-        <v>0</v>
-      </c>
-      <c r="G7" s="15">
-        <v>0</v>
+      <c r="F7" s="16">
+        <v>341017</v>
+      </c>
+      <c r="G7" s="9">
+        <v>1</v>
       </c>
       <c r="H7" s="4">
         <v>45573</v>
@@ -1397,11 +1389,11 @@
       <c r="E8" s="3">
         <v>1</v>
       </c>
-      <c r="F8" s="15">
-        <v>0</v>
-      </c>
-      <c r="G8" s="15">
-        <v>0</v>
+      <c r="F8" s="9">
+        <v>100001</v>
+      </c>
+      <c r="G8" s="9">
+        <v>800</v>
       </c>
       <c r="H8" s="4">
         <v>45573</v>
@@ -1427,10 +1419,10 @@
         <v>1</v>
       </c>
       <c r="F9" s="15">
-        <v>0</v>
-      </c>
-      <c r="G9" s="15">
-        <v>0</v>
+        <v>341019</v>
+      </c>
+      <c r="G9" s="9">
+        <v>1</v>
       </c>
       <c r="H9" s="4">
         <v>45573</v>
@@ -1455,11 +1447,11 @@
       <c r="E10" s="3">
         <v>1</v>
       </c>
-      <c r="F10" s="15">
-        <v>0</v>
-      </c>
-      <c r="G10" s="15">
-        <v>0</v>
+      <c r="F10" s="16">
+        <v>341006</v>
+      </c>
+      <c r="G10" s="9">
+        <v>1</v>
       </c>
       <c r="H10" s="4">
         <v>45573</v>
@@ -1484,11 +1476,11 @@
       <c r="E11" s="3">
         <v>1</v>
       </c>
-      <c r="F11" s="15">
-        <v>0</v>
-      </c>
-      <c r="G11" s="15">
-        <v>0</v>
+      <c r="F11" s="9">
+        <v>201019</v>
+      </c>
+      <c r="G11" s="9">
+        <v>1</v>
       </c>
       <c r="H11" s="4">
         <v>45573</v>
@@ -1517,7 +1509,7 @@
         <v>100001</v>
       </c>
       <c r="G12" s="9">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="H12" s="10">
         <v>45573</v>
@@ -1546,7 +1538,7 @@
         <v>100001</v>
       </c>
       <c r="G13" s="9">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="H13" s="10">
         <v>45573</v>
@@ -1572,10 +1564,10 @@
         <v>1</v>
       </c>
       <c r="F14" s="9">
-        <v>100001</v>
+        <v>341023</v>
       </c>
       <c r="G14" s="9">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="H14" s="10">
         <v>45573</v>
@@ -1604,7 +1596,7 @@
         <v>100001</v>
       </c>
       <c r="G15" s="9">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="H15" s="10">
         <v>45573</v>
@@ -1633,7 +1625,7 @@
         <v>100001</v>
       </c>
       <c r="G16" s="9">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="H16" s="10">
         <v>45573</v>
@@ -1659,10 +1651,10 @@
         <v>1</v>
       </c>
       <c r="F17" s="9">
-        <v>100001</v>
+        <v>341027</v>
       </c>
       <c r="G17" s="9">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="H17" s="10">
         <v>45573</v>
@@ -1691,7 +1683,7 @@
         <v>100001</v>
       </c>
       <c r="G18" s="9">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="H18" s="10">
         <v>45573</v>
@@ -1720,7 +1712,7 @@
         <v>100001</v>
       </c>
       <c r="G19" s="9">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="H19" s="10">
         <v>45573</v>
@@ -1745,11 +1737,11 @@
       <c r="E20" s="3">
         <v>1</v>
       </c>
-      <c r="F20" s="9">
-        <v>100001</v>
+      <c r="F20" s="16">
+        <v>313001</v>
       </c>
       <c r="G20" s="9">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="H20" s="10">
         <v>45573</v>
@@ -1775,56 +1767,56 @@
         <v>1</v>
       </c>
       <c r="F21" s="9">
+        <v>100002</v>
+      </c>
+      <c r="G21" s="9">
+        <v>1500</v>
+      </c>
+      <c r="H21" s="10">
+        <v>45573</v>
+      </c>
+      <c r="I21" s="10">
+        <v>72686</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>60121</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="3">
+        <v>21</v>
+      </c>
+      <c r="D22" s="8">
+        <v>100</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+      <c r="F22" s="9">
         <v>100001</v>
       </c>
-      <c r="G21" s="9">
-        <v>1000</v>
-      </c>
-      <c r="H21" s="10">
-        <v>45573</v>
-      </c>
-      <c r="I21" s="10">
-        <v>72686</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="5">
-        <v>60201</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="5">
-        <v>1</v>
-      </c>
-      <c r="D22" s="5">
-        <v>100</v>
-      </c>
-      <c r="E22" s="5">
-        <v>2</v>
-      </c>
-      <c r="F22" s="16">
-        <v>0</v>
-      </c>
-      <c r="G22" s="16">
-        <v>0</v>
-      </c>
-      <c r="H22" s="7">
-        <v>45573</v>
-      </c>
-      <c r="I22" s="7">
+      <c r="G22" s="9">
+        <v>500</v>
+      </c>
+      <c r="H22" s="10">
+        <v>45573</v>
+      </c>
+      <c r="I22" s="10">
         <v>72686</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
-        <v>60202</v>
+        <v>60201</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C23" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" s="5">
         <v>100</v>
@@ -1832,11 +1824,11 @@
       <c r="E23" s="5">
         <v>2</v>
       </c>
-      <c r="F23" s="16">
-        <v>0</v>
-      </c>
-      <c r="G23" s="16">
-        <v>0</v>
+      <c r="F23" s="6">
+        <v>100002</v>
+      </c>
+      <c r="G23" s="6">
+        <v>50</v>
       </c>
       <c r="H23" s="7">
         <v>45573</v>
@@ -1847,13 +1839,13 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
-        <v>60203</v>
+        <v>60202</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C24" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" s="5">
         <v>100</v>
@@ -1861,11 +1853,11 @@
       <c r="E24" s="5">
         <v>2</v>
       </c>
-      <c r="F24" s="16">
-        <v>0</v>
-      </c>
-      <c r="G24" s="16">
-        <v>0</v>
+      <c r="F24" s="6">
+        <v>100002</v>
+      </c>
+      <c r="G24" s="6">
+        <v>50</v>
       </c>
       <c r="H24" s="7">
         <v>45573</v>
@@ -1876,13 +1868,13 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
-        <v>60204</v>
+        <v>60203</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" s="5">
         <v>100</v>
@@ -1890,11 +1882,11 @@
       <c r="E25" s="5">
         <v>2</v>
       </c>
-      <c r="F25" s="16">
-        <v>0</v>
-      </c>
-      <c r="G25" s="16">
-        <v>0</v>
+      <c r="F25" s="6">
+        <v>341020</v>
+      </c>
+      <c r="G25" s="6">
+        <v>1</v>
       </c>
       <c r="H25" s="7">
         <v>45573</v>
@@ -1905,13 +1897,13 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
-        <v>60205</v>
+        <v>60204</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" s="5">
         <v>100</v>
@@ -1919,11 +1911,11 @@
       <c r="E26" s="5">
         <v>2</v>
       </c>
-      <c r="F26" s="16">
-        <v>0</v>
-      </c>
-      <c r="G26" s="16">
-        <v>0</v>
+      <c r="F26" s="6">
+        <v>100002</v>
+      </c>
+      <c r="G26" s="6">
+        <v>50</v>
       </c>
       <c r="H26" s="7">
         <v>45573</v>
@@ -1934,13 +1926,13 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
-        <v>60206</v>
+        <v>60205</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C27" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D27" s="5">
         <v>100</v>
@@ -1948,11 +1940,11 @@
       <c r="E27" s="5">
         <v>2</v>
       </c>
-      <c r="F27" s="16">
-        <v>0</v>
-      </c>
-      <c r="G27" s="16">
-        <v>0</v>
+      <c r="F27" s="6">
+        <v>100002</v>
+      </c>
+      <c r="G27" s="6">
+        <v>50</v>
       </c>
       <c r="H27" s="7">
         <v>45573</v>
@@ -1963,13 +1955,13 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
-        <v>60207</v>
+        <v>60206</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C28" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D28" s="5">
         <v>100</v>
@@ -1977,11 +1969,11 @@
       <c r="E28" s="5">
         <v>2</v>
       </c>
-      <c r="F28" s="16">
-        <v>0</v>
-      </c>
-      <c r="G28" s="16">
-        <v>0</v>
+      <c r="F28" s="6">
+        <v>341002</v>
+      </c>
+      <c r="G28" s="6">
+        <v>1</v>
       </c>
       <c r="H28" s="7">
         <v>45573</v>
@@ -1992,13 +1984,13 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
-        <v>60208</v>
+        <v>60207</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C29" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D29" s="5">
         <v>100</v>
@@ -2006,11 +1998,11 @@
       <c r="E29" s="5">
         <v>2</v>
       </c>
-      <c r="F29" s="16">
-        <v>0</v>
-      </c>
-      <c r="G29" s="16">
-        <v>0</v>
+      <c r="F29" s="6">
+        <v>100002</v>
+      </c>
+      <c r="G29" s="6">
+        <v>50</v>
       </c>
       <c r="H29" s="7">
         <v>45573</v>
@@ -2021,13 +2013,13 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
-        <v>60209</v>
+        <v>60208</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D30" s="5">
         <v>100</v>
@@ -2035,11 +2027,11 @@
       <c r="E30" s="5">
         <v>2</v>
       </c>
-      <c r="F30" s="16">
-        <v>0</v>
-      </c>
-      <c r="G30" s="16">
-        <v>0</v>
+      <c r="F30" s="6">
+        <v>100002</v>
+      </c>
+      <c r="G30" s="6">
+        <v>50</v>
       </c>
       <c r="H30" s="7">
         <v>45573</v>
@@ -2050,13 +2042,13 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
-        <v>60210</v>
+        <v>60209</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C31" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D31" s="5">
         <v>100</v>
@@ -2064,11 +2056,11 @@
       <c r="E31" s="5">
         <v>2</v>
       </c>
-      <c r="F31" s="16">
-        <v>0</v>
-      </c>
-      <c r="G31" s="16">
-        <v>0</v>
+      <c r="F31" s="6">
+        <v>332001</v>
+      </c>
+      <c r="G31" s="6">
+        <v>1</v>
       </c>
       <c r="H31" s="7">
         <v>45573</v>
@@ -2079,13 +2071,13 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
-        <v>60211</v>
+        <v>60210</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C32" s="5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D32" s="5">
         <v>100</v>
@@ -2094,10 +2086,10 @@
         <v>2</v>
       </c>
       <c r="F32" s="6">
-        <v>100002</v>
+        <v>201020</v>
       </c>
       <c r="G32" s="6">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="H32" s="7">
         <v>45573</v>
@@ -2108,13 +2100,13 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
-        <v>60212</v>
+        <v>60211</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C33" s="5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D33" s="5">
         <v>100</v>
@@ -2137,13 +2129,13 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
-        <v>60213</v>
+        <v>60212</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C34" s="5">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D34" s="5">
         <v>100</v>
@@ -2166,13 +2158,13 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
-        <v>60214</v>
+        <v>60213</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C35" s="5">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D35" s="5">
         <v>100</v>
@@ -2181,10 +2173,10 @@
         <v>2</v>
       </c>
       <c r="F35" s="6">
-        <v>100002</v>
+        <v>201014</v>
       </c>
       <c r="G35" s="6">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="H35" s="7">
         <v>45573</v>
@@ -2195,13 +2187,13 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
-        <v>60215</v>
+        <v>60214</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C36" s="5">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D36" s="5">
         <v>100</v>
@@ -2224,13 +2216,13 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
-        <v>60216</v>
+        <v>60215</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C37" s="5">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D37" s="5">
         <v>100</v>
@@ -2253,13 +2245,13 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
-        <v>60217</v>
+        <v>60216</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C38" s="5">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D38" s="5">
         <v>100</v>
@@ -2268,10 +2260,10 @@
         <v>2</v>
       </c>
       <c r="F38" s="6">
-        <v>100002</v>
+        <v>201015</v>
       </c>
       <c r="G38" s="6">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="H38" s="7">
         <v>45573</v>
@@ -2282,13 +2274,13 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
-        <v>60218</v>
+        <v>60217</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C39" s="5">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D39" s="5">
         <v>100</v>
@@ -2311,13 +2303,13 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
-        <v>60219</v>
+        <v>60218</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C40" s="5">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D40" s="5">
         <v>100</v>
@@ -2340,30 +2332,88 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
+        <v>60219</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="5">
+        <v>19</v>
+      </c>
+      <c r="D41" s="5">
+        <v>100</v>
+      </c>
+      <c r="E41" s="5">
+        <v>2</v>
+      </c>
+      <c r="F41" s="6">
+        <v>201022</v>
+      </c>
+      <c r="G41" s="6">
+        <v>1</v>
+      </c>
+      <c r="H41" s="7">
+        <v>45573</v>
+      </c>
+      <c r="I41" s="7">
+        <v>72686</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="5">
         <v>60220</v>
       </c>
-      <c r="B41" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" s="5">
+      <c r="B42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="5">
         <v>20</v>
       </c>
-      <c r="D41" s="5">
-        <v>100</v>
-      </c>
-      <c r="E41" s="5">
-        <v>2</v>
-      </c>
-      <c r="F41" s="6">
+      <c r="D42" s="5">
+        <v>100</v>
+      </c>
+      <c r="E42" s="5">
+        <v>2</v>
+      </c>
+      <c r="F42" s="6">
+        <v>201023</v>
+      </c>
+      <c r="G42" s="6">
+        <v>1</v>
+      </c>
+      <c r="H42" s="7">
+        <v>45573</v>
+      </c>
+      <c r="I42" s="7">
+        <v>72686</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="5">
+        <v>60221</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="5">
+        <v>21</v>
+      </c>
+      <c r="D43" s="5">
+        <v>100</v>
+      </c>
+      <c r="E43" s="5">
+        <v>2</v>
+      </c>
+      <c r="F43" s="6">
         <v>100002</v>
       </c>
-      <c r="G41" s="6">
-        <v>50</v>
-      </c>
-      <c r="H41" s="7">
-        <v>45573</v>
-      </c>
-      <c r="I41" s="7">
+      <c r="G43" s="6">
+        <v>30</v>
+      </c>
+      <c r="H43" s="7">
+        <v>45573</v>
+      </c>
+      <c r="I43" s="7">
         <v>72686</v>
       </c>
     </row>
@@ -2378,7 +2428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4561621-BAF4-4FB5-8F15-B71B1A49C200}">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>

--- a/Client/Assets/11. GameData/Pass.xlsx
+++ b/Client/Assets/11. GameData/Pass.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Download2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FestivalTownProject\Client\Assets\11. GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC550117-408E-45B1-8C23-538CA254D229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A433DE0F-DF10-42CB-ABAC-734426953538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5055" yWindow="0" windowWidth="15465" windowHeight="13110" tabRatio="535" activeTab="1" xr2:uid="{E3B10073-6739-413D-9047-29D24A9ED330}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="535" activeTab="2" xr2:uid="{E3B10073-6739-413D-9047-29D24A9ED330}"/>
   </bookViews>
   <sheets>
     <sheet name="Pass_Info" sheetId="4" r:id="rId1"/>
@@ -570,7 +570,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -610,17 +610,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1023,10 +1020,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="14"/>
+      <c r="B1" s="15"/>
       <c r="C1" s="12" t="s">
         <v>73</v>
       </c>
@@ -1154,7 +1151,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A74E4F3-3BB8-4CF3-AC0A-3F86C309575D}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
@@ -1273,7 +1270,7 @@
       <c r="E4" s="3">
         <v>1</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4">
         <v>341003</v>
       </c>
       <c r="G4" s="9">
@@ -1360,7 +1357,7 @@
       <c r="E7" s="3">
         <v>1</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7">
         <v>341017</v>
       </c>
       <c r="G7" s="9">
@@ -1418,7 +1415,7 @@
       <c r="E9" s="3">
         <v>1</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="13">
         <v>341019</v>
       </c>
       <c r="G9" s="9">
@@ -1447,7 +1444,7 @@
       <c r="E10" s="3">
         <v>1</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10">
         <v>341006</v>
       </c>
       <c r="G10" s="9">
@@ -1737,7 +1734,7 @@
       <c r="E20" s="3">
         <v>1</v>
       </c>
-      <c r="F20" s="16">
+      <c r="F20">
         <v>313001</v>
       </c>
       <c r="G20" s="9">
@@ -2428,8 +2425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4561621-BAF4-4FB5-8F15-B71B1A49C200}">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2570,7 +2567,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" s="8">
         <v>3</v>

--- a/Client/Assets/11. GameData/Pass.xlsx
+++ b/Client/Assets/11. GameData/Pass.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FestivalTownProject\Client\Assets\11. GameData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lcmbb\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A433DE0F-DF10-42CB-ABAC-734426953538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5CC2E3-F962-41D9-A688-767054B3CBCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="535" activeTab="2" xr2:uid="{E3B10073-6739-413D-9047-29D24A9ED330}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="535" activeTab="2" xr2:uid="{E3B10073-6739-413D-9047-29D24A9ED330}"/>
   </bookViews>
   <sheets>
     <sheet name="Pass_Info" sheetId="4" r:id="rId1"/>
@@ -89,6 +89,7 @@
   <authors>
     <author>tc={378FB66A-BA3D-44D6-B82A-F025F88A37CD}</author>
     <author>tc={97C28FAB-3096-4512-B210-0B5909A7B492}</author>
+    <author>tc={0DE01F69-01C9-4B8E-9BD4-88709C5197A0}</author>
     <author>tc={18E7BADE-E384-4BE8-AA3B-F1C1704A89F6}</author>
     <author>tc={66631B6D-140F-4AE7-BA26-FAEA338D5452}</author>
   </authors>
@@ -118,7 +119,15 @@
 8=아이템 획득(뽑기)</t>
       </text>
     </comment>
-    <comment ref="I1" authorId="2" shapeId="0" xr:uid="{18E7BADE-E384-4BE8-AA3B-F1C1704A89F6}">
+    <comment ref="H1" authorId="2" shapeId="0" xr:uid="{0DE01F69-01C9-4B8E-9BD4-88709C5197A0}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    등급 아이템 수집을 위해 추가</t>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="3" shapeId="0" xr:uid="{18E7BADE-E384-4BE8-AA3B-F1C1704A89F6}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -126,7 +135,7 @@
     획득할 패스 경험치</t>
       </text>
     </comment>
-    <comment ref="K1" authorId="3" shapeId="0" xr:uid="{66631B6D-140F-4AE7-BA26-FAEA338D5452}">
+    <comment ref="L1" authorId="4" shapeId="0" xr:uid="{66631B6D-140F-4AE7-BA26-FAEA338D5452}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -139,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="83">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -448,6 +457,10 @@
   </si>
   <si>
     <t>뽑기에서 레어 아이템을 획득하세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Required_Item_Grade</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -455,7 +468,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -487,6 +500,12 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -993,10 +1012,13 @@
 7=그로기
 8=아이템 획득(뽑기)</text>
   </threadedComment>
-  <threadedComment ref="I1" dT="2024-11-14T14:51:04.63" personId="{36C43E8F-E806-4672-A3DE-BA0E07A7B13D}" id="{18E7BADE-E384-4BE8-AA3B-F1C1704A89F6}">
+  <threadedComment ref="H1" dT="2025-02-05T08:41:50.71" personId="{36C43E8F-E806-4672-A3DE-BA0E07A7B13D}" id="{0DE01F69-01C9-4B8E-9BD4-88709C5197A0}">
+    <text>등급 아이템 수집을 위해 추가</text>
+  </threadedComment>
+  <threadedComment ref="J1" dT="2024-11-14T14:51:04.63" personId="{36C43E8F-E806-4672-A3DE-BA0E07A7B13D}" id="{18E7BADE-E384-4BE8-AA3B-F1C1704A89F6}">
     <text>획득할 패스 경험치</text>
   </threadedComment>
-  <threadedComment ref="K1" dT="2024-11-14T14:55:02.05" personId="{36C43E8F-E806-4672-A3DE-BA0E07A7B13D}" id="{66631B6D-140F-4AE7-BA26-FAEA338D5452}">
+  <threadedComment ref="L1" dT="2024-11-14T14:55:02.05" personId="{36C43E8F-E806-4672-A3DE-BA0E07A7B13D}" id="{66631B6D-140F-4AE7-BA26-FAEA338D5452}">
     <text>보상 아이템 수량</text>
   </threadedComment>
 </ThreadedComments>
@@ -1010,16 +1032,16 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.25" customWidth="1"/>
+    <col min="1" max="1" width="3.19921875" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="54.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="14" t="s">
         <v>72</v>
       </c>
@@ -1028,7 +1050,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -1039,7 +1061,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -1050,7 +1072,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -1061,7 +1083,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -1072,7 +1094,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -1083,7 +1105,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -1094,7 +1116,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -1105,7 +1127,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -1116,25 +1138,25 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
     </row>
-    <row r="11" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
     </row>
-    <row r="12" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="13" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
     </row>
@@ -1151,23 +1173,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A74E4F3-3BB8-4CF3-AC0A-3F86C309575D}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.75" customWidth="1"/>
-    <col min="2" max="2" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.75" customWidth="1"/>
-    <col min="6" max="6" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.69921875" customWidth="1"/>
+    <col min="2" max="2" width="19.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.69921875" customWidth="1"/>
+    <col min="6" max="6" width="19.19921875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.75" customWidth="1"/>
+    <col min="10" max="10" width="12.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1196,7 +1218,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <v>60101</v>
       </c>
@@ -1225,7 +1247,7 @@
         <v>72686</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>60102</v>
       </c>
@@ -1254,7 +1276,7 @@
         <v>72686</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>60103</v>
       </c>
@@ -1283,7 +1305,7 @@
         <v>72686</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>60104</v>
       </c>
@@ -1312,7 +1334,7 @@
         <v>72686</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>60105</v>
       </c>
@@ -1341,7 +1363,7 @@
         <v>72686</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>60106</v>
       </c>
@@ -1370,7 +1392,7 @@
         <v>72686</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>60107</v>
       </c>
@@ -1399,7 +1421,7 @@
         <v>72686</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>60108</v>
       </c>
@@ -1428,7 +1450,7 @@
         <v>72686</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>60109</v>
       </c>
@@ -1457,7 +1479,7 @@
         <v>72686</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>60110</v>
       </c>
@@ -1486,7 +1508,7 @@
         <v>72686</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>60111</v>
       </c>
@@ -1515,7 +1537,7 @@
         <v>72686</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>60112</v>
       </c>
@@ -1544,7 +1566,7 @@
         <v>72686</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <v>60113</v>
       </c>
@@ -1573,7 +1595,7 @@
         <v>72686</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <v>60114</v>
       </c>
@@ -1602,7 +1624,7 @@
         <v>72686</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <v>60115</v>
       </c>
@@ -1631,7 +1653,7 @@
         <v>72686</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <v>60116</v>
       </c>
@@ -1660,7 +1682,7 @@
         <v>72686</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <v>60117</v>
       </c>
@@ -1689,7 +1711,7 @@
         <v>72686</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <v>60118</v>
       </c>
@@ -1718,7 +1740,7 @@
         <v>72686</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <v>60119</v>
       </c>
@@ -1747,7 +1769,7 @@
         <v>72686</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <v>60120</v>
       </c>
@@ -1776,7 +1798,7 @@
         <v>72686</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <v>60121</v>
       </c>
@@ -1805,7 +1827,7 @@
         <v>72686</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="5">
         <v>60201</v>
       </c>
@@ -1834,7 +1856,7 @@
         <v>72686</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="5">
         <v>60202</v>
       </c>
@@ -1863,7 +1885,7 @@
         <v>72686</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="5">
         <v>60203</v>
       </c>
@@ -1892,7 +1914,7 @@
         <v>72686</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="5">
         <v>60204</v>
       </c>
@@ -1921,7 +1943,7 @@
         <v>72686</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="5">
         <v>60205</v>
       </c>
@@ -1950,7 +1972,7 @@
         <v>72686</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="5">
         <v>60206</v>
       </c>
@@ -1979,7 +2001,7 @@
         <v>72686</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" s="5">
         <v>60207</v>
       </c>
@@ -2008,7 +2030,7 @@
         <v>72686</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="5">
         <v>60208</v>
       </c>
@@ -2037,7 +2059,7 @@
         <v>72686</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" s="5">
         <v>60209</v>
       </c>
@@ -2066,7 +2088,7 @@
         <v>72686</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" s="5">
         <v>60210</v>
       </c>
@@ -2095,7 +2117,7 @@
         <v>72686</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33" s="5">
         <v>60211</v>
       </c>
@@ -2124,7 +2146,7 @@
         <v>72686</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A34" s="5">
         <v>60212</v>
       </c>
@@ -2153,7 +2175,7 @@
         <v>72686</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35" s="5">
         <v>60213</v>
       </c>
@@ -2182,7 +2204,7 @@
         <v>72686</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A36" s="5">
         <v>60214</v>
       </c>
@@ -2211,7 +2233,7 @@
         <v>72686</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A37" s="5">
         <v>60215</v>
       </c>
@@ -2240,7 +2262,7 @@
         <v>72686</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A38" s="5">
         <v>60216</v>
       </c>
@@ -2269,7 +2291,7 @@
         <v>72686</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A39" s="5">
         <v>60217</v>
       </c>
@@ -2298,7 +2320,7 @@
         <v>72686</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A40" s="5">
         <v>60218</v>
       </c>
@@ -2327,7 +2349,7 @@
         <v>72686</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A41" s="5">
         <v>60219</v>
       </c>
@@ -2356,7 +2378,7 @@
         <v>72686</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A42" s="5">
         <v>60220</v>
       </c>
@@ -2385,7 +2407,7 @@
         <v>72686</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A43" s="5">
         <v>60221</v>
       </c>
@@ -2423,38 +2445,39 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4561621-BAF4-4FB5-8F15-B71B1A49C200}">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10.5" customWidth="1"/>
-    <col min="2" max="2" width="7.25" customWidth="1"/>
-    <col min="3" max="3" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.375" customWidth="1"/>
-    <col min="9" max="10" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="44" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.19921875" customWidth="1"/>
+    <col min="3" max="3" width="16.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.8984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.09765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.3984375" customWidth="1"/>
+    <col min="10" max="11" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.09765625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.09765625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.09765625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.3984375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="44" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.69921875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="22.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2476,20 +2499,23 @@
       <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="8">
         <v>51011</v>
       </c>
@@ -2512,19 +2538,22 @@
         <v>32</v>
       </c>
       <c r="H2" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" s="8">
+        <v>1</v>
+      </c>
+      <c r="J2" s="8">
         <v>15</v>
       </c>
-      <c r="J2" s="8">
+      <c r="K2" s="8">
         <v>100001</v>
       </c>
-      <c r="K2" s="8">
+      <c r="L2" s="8">
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="8">
         <v>51021</v>
       </c>
@@ -2547,19 +2576,22 @@
         <v>23</v>
       </c>
       <c r="H3" s="8">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8">
         <v>3</v>
       </c>
-      <c r="I3" s="8">
+      <c r="J3" s="8">
         <v>15</v>
       </c>
-      <c r="J3" s="8">
+      <c r="K3" s="8">
         <v>100001</v>
       </c>
-      <c r="K3" s="8">
+      <c r="L3" s="8">
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="8">
         <v>51031</v>
       </c>
@@ -2582,19 +2614,22 @@
         <v>22</v>
       </c>
       <c r="H4" s="8">
+        <v>0</v>
+      </c>
+      <c r="I4" s="8">
         <v>3</v>
       </c>
-      <c r="I4" s="8">
+      <c r="J4" s="8">
         <v>15</v>
       </c>
-      <c r="J4" s="8">
+      <c r="K4" s="8">
         <v>100001</v>
       </c>
-      <c r="K4" s="8">
+      <c r="L4" s="8">
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="8">
         <v>51041</v>
       </c>
@@ -2617,19 +2652,22 @@
         <v>21</v>
       </c>
       <c r="H5" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="8">
+        <v>1</v>
+      </c>
+      <c r="J5" s="8">
         <v>20</v>
       </c>
-      <c r="J5" s="8">
+      <c r="K5" s="8">
         <v>100001</v>
       </c>
-      <c r="K5" s="8">
+      <c r="L5" s="8">
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="8">
         <v>51051</v>
       </c>
@@ -2652,19 +2690,22 @@
         <v>20</v>
       </c>
       <c r="H6" s="8">
+        <v>0</v>
+      </c>
+      <c r="I6" s="8">
         <v>3</v>
       </c>
-      <c r="I6" s="8">
+      <c r="J6" s="8">
         <v>20</v>
       </c>
-      <c r="J6" s="8">
+      <c r="K6" s="8">
         <v>100001</v>
       </c>
-      <c r="K6" s="8">
+      <c r="L6" s="8">
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="8">
         <v>51061</v>
       </c>
@@ -2687,19 +2728,22 @@
         <v>78</v>
       </c>
       <c r="H7" s="8">
+        <v>0</v>
+      </c>
+      <c r="I7" s="8">
         <v>5</v>
       </c>
-      <c r="I7" s="8">
+      <c r="J7" s="8">
         <v>20</v>
       </c>
-      <c r="J7" s="8">
+      <c r="K7" s="8">
         <v>100001</v>
       </c>
-      <c r="K7" s="8">
+      <c r="L7" s="8">
         <v>500</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="8">
         <v>51071</v>
       </c>
@@ -2722,19 +2766,22 @@
         <v>79</v>
       </c>
       <c r="H8" s="8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="8">
         <v>10</v>
       </c>
-      <c r="I8" s="8">
+      <c r="J8" s="8">
         <v>20</v>
       </c>
-      <c r="J8" s="8">
+      <c r="K8" s="8">
         <v>100001</v>
       </c>
-      <c r="K8" s="8">
+      <c r="L8" s="8">
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="5">
         <v>52111</v>
       </c>
@@ -2757,19 +2804,22 @@
         <v>32</v>
       </c>
       <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
         <v>5</v>
       </c>
-      <c r="I9" s="5">
+      <c r="J9" s="5">
         <v>50</v>
       </c>
-      <c r="J9" s="5">
-        <v>0</v>
-      </c>
       <c r="K9" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="5">
         <v>52112</v>
       </c>
@@ -2792,19 +2842,22 @@
         <v>32</v>
       </c>
       <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
         <v>10</v>
       </c>
-      <c r="I10" s="5">
+      <c r="J10" s="5">
         <v>50</v>
       </c>
-      <c r="J10" s="5">
-        <v>0</v>
-      </c>
       <c r="K10" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="5">
         <v>52113</v>
       </c>
@@ -2827,19 +2880,22 @@
         <v>32</v>
       </c>
       <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
         <v>15</v>
       </c>
-      <c r="I11" s="5">
+      <c r="J11" s="5">
         <v>50</v>
       </c>
-      <c r="J11" s="5">
-        <v>0</v>
-      </c>
       <c r="K11" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" s="5">
         <v>52114</v>
       </c>
@@ -2862,19 +2918,22 @@
         <v>32</v>
       </c>
       <c r="H12" s="5">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5">
         <v>20</v>
       </c>
-      <c r="I12" s="5">
+      <c r="J12" s="5">
         <v>50</v>
       </c>
-      <c r="J12" s="5">
-        <v>0</v>
-      </c>
       <c r="K12" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" s="5">
         <v>52211</v>
       </c>
@@ -2897,19 +2956,22 @@
         <v>23</v>
       </c>
       <c r="H13" s="5">
+        <v>0</v>
+      </c>
+      <c r="I13" s="5">
         <v>10</v>
       </c>
-      <c r="I13" s="5">
+      <c r="J13" s="5">
         <v>50</v>
       </c>
-      <c r="J13" s="5">
-        <v>0</v>
-      </c>
       <c r="K13" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" s="5">
         <v>52212</v>
       </c>
@@ -2932,19 +2994,22 @@
         <v>23</v>
       </c>
       <c r="H14" s="5">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5">
         <v>20</v>
       </c>
-      <c r="I14" s="5">
+      <c r="J14" s="5">
         <v>50</v>
       </c>
-      <c r="J14" s="5">
-        <v>0</v>
-      </c>
       <c r="K14" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L14" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" s="5">
         <v>52213</v>
       </c>
@@ -2967,19 +3032,22 @@
         <v>23</v>
       </c>
       <c r="H15" s="5">
+        <v>0</v>
+      </c>
+      <c r="I15" s="5">
         <v>30</v>
       </c>
-      <c r="I15" s="5">
+      <c r="J15" s="5">
         <v>50</v>
       </c>
-      <c r="J15" s="5">
-        <v>0</v>
-      </c>
       <c r="K15" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" s="5">
         <v>52214</v>
       </c>
@@ -3002,19 +3070,22 @@
         <v>23</v>
       </c>
       <c r="H16" s="5">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I16" s="5">
         <v>50</v>
       </c>
       <c r="J16" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K16" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L16" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" s="5">
         <v>52311</v>
       </c>
@@ -3037,19 +3108,22 @@
         <v>77</v>
       </c>
       <c r="H17" s="5">
+        <v>0</v>
+      </c>
+      <c r="I17" s="5">
         <v>30</v>
       </c>
-      <c r="I17" s="5">
+      <c r="J17" s="5">
         <v>50</v>
       </c>
-      <c r="J17" s="5">
-        <v>0</v>
-      </c>
       <c r="K17" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L17" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" s="5">
         <v>52312</v>
       </c>
@@ -3072,19 +3146,22 @@
         <v>77</v>
       </c>
       <c r="H18" s="5">
+        <v>0</v>
+      </c>
+      <c r="I18" s="5">
         <v>60</v>
       </c>
-      <c r="I18" s="5">
+      <c r="J18" s="5">
         <v>50</v>
       </c>
-      <c r="J18" s="5">
-        <v>0</v>
-      </c>
       <c r="K18" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L18" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" s="5">
         <v>52313</v>
       </c>
@@ -3107,19 +3184,22 @@
         <v>77</v>
       </c>
       <c r="H19" s="5">
+        <v>0</v>
+      </c>
+      <c r="I19" s="5">
         <v>90</v>
       </c>
-      <c r="I19" s="5">
+      <c r="J19" s="5">
         <v>50</v>
       </c>
-      <c r="J19" s="5">
-        <v>0</v>
-      </c>
       <c r="K19" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L19" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" s="5">
         <v>52411</v>
       </c>
@@ -3142,19 +3222,22 @@
         <v>45</v>
       </c>
       <c r="H20" s="5">
+        <v>0</v>
+      </c>
+      <c r="I20" s="5">
         <v>10</v>
       </c>
-      <c r="I20" s="5">
+      <c r="J20" s="5">
         <v>50</v>
       </c>
-      <c r="J20" s="5">
-        <v>0</v>
-      </c>
       <c r="K20" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L20" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21" s="5">
         <v>52412</v>
       </c>
@@ -3177,19 +3260,22 @@
         <v>45</v>
       </c>
       <c r="H21" s="5">
+        <v>0</v>
+      </c>
+      <c r="I21" s="5">
         <v>20</v>
       </c>
-      <c r="I21" s="5">
+      <c r="J21" s="5">
         <v>50</v>
       </c>
-      <c r="J21" s="5">
-        <v>0</v>
-      </c>
       <c r="K21" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L21" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" s="5">
         <v>52413</v>
       </c>
@@ -3212,19 +3298,22 @@
         <v>45</v>
       </c>
       <c r="H22" s="5">
+        <v>0</v>
+      </c>
+      <c r="I22" s="5">
         <v>30</v>
       </c>
-      <c r="I22" s="5">
+      <c r="J22" s="5">
         <v>50</v>
       </c>
-      <c r="J22" s="5">
-        <v>0</v>
-      </c>
       <c r="K22" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L22" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23" s="5">
         <v>52414</v>
       </c>
@@ -3247,19 +3336,22 @@
         <v>45</v>
       </c>
       <c r="H23" s="5">
+        <v>0</v>
+      </c>
+      <c r="I23" s="5">
         <v>40</v>
       </c>
-      <c r="I23" s="5">
+      <c r="J23" s="5">
         <v>50</v>
       </c>
-      <c r="J23" s="5">
-        <v>0</v>
-      </c>
       <c r="K23" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L23" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24" s="5">
         <v>52415</v>
       </c>
@@ -3282,19 +3374,22 @@
         <v>44</v>
       </c>
       <c r="H24" s="5">
+        <v>0</v>
+      </c>
+      <c r="I24" s="5">
         <v>50</v>
       </c>
-      <c r="I24" s="5">
+      <c r="J24" s="5">
         <v>150</v>
       </c>
-      <c r="J24" s="5">
-        <v>0</v>
-      </c>
       <c r="K24" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L24" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25" s="5">
         <v>52511</v>
       </c>
@@ -3317,19 +3412,22 @@
         <v>47</v>
       </c>
       <c r="H25" s="5">
+        <v>0</v>
+      </c>
+      <c r="I25" s="5">
         <v>10</v>
       </c>
-      <c r="I25" s="5">
+      <c r="J25" s="5">
         <v>50</v>
       </c>
-      <c r="J25" s="5">
-        <v>0</v>
-      </c>
       <c r="K25" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L25" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26" s="5">
         <v>52512</v>
       </c>
@@ -3352,19 +3450,22 @@
         <v>47</v>
       </c>
       <c r="H26" s="5">
+        <v>0</v>
+      </c>
+      <c r="I26" s="5">
         <v>20</v>
       </c>
-      <c r="I26" s="5">
+      <c r="J26" s="5">
         <v>50</v>
       </c>
-      <c r="J26" s="5">
-        <v>0</v>
-      </c>
       <c r="K26" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L26" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27" s="5">
         <v>52513</v>
       </c>
@@ -3387,19 +3488,22 @@
         <v>47</v>
       </c>
       <c r="H27" s="5">
+        <v>0</v>
+      </c>
+      <c r="I27" s="5">
         <v>30</v>
       </c>
-      <c r="I27" s="5">
+      <c r="J27" s="5">
         <v>50</v>
       </c>
-      <c r="J27" s="5">
-        <v>0</v>
-      </c>
       <c r="K27" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L27" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A28" s="5">
         <v>52611</v>
       </c>
@@ -3422,19 +3526,22 @@
         <v>59</v>
       </c>
       <c r="H28" s="5">
+        <v>0</v>
+      </c>
+      <c r="I28" s="5">
         <v>30</v>
       </c>
-      <c r="I28" s="5">
-        <v>100</v>
-      </c>
       <c r="J28" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K28" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L28" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A29" s="5">
         <v>52612</v>
       </c>
@@ -3457,19 +3564,22 @@
         <v>59</v>
       </c>
       <c r="H29" s="5">
+        <v>0</v>
+      </c>
+      <c r="I29" s="5">
         <v>60</v>
       </c>
-      <c r="I29" s="5">
-        <v>100</v>
-      </c>
       <c r="J29" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K29" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L29" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A30" s="5">
         <v>52613</v>
       </c>
@@ -3492,19 +3602,22 @@
         <v>59</v>
       </c>
       <c r="H30" s="5">
+        <v>0</v>
+      </c>
+      <c r="I30" s="5">
         <v>90</v>
       </c>
-      <c r="I30" s="5">
-        <v>100</v>
-      </c>
       <c r="J30" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K30" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L30" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A31" s="5">
         <v>52614</v>
       </c>
@@ -3527,19 +3640,22 @@
         <v>59</v>
       </c>
       <c r="H31" s="5">
+        <v>0</v>
+      </c>
+      <c r="I31" s="5">
         <v>120</v>
       </c>
-      <c r="I31" s="5">
-        <v>100</v>
-      </c>
       <c r="J31" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K31" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L31" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A32" s="5">
         <v>52615</v>
       </c>
@@ -3562,19 +3678,22 @@
         <v>59</v>
       </c>
       <c r="H32" s="5">
+        <v>0</v>
+      </c>
+      <c r="I32" s="5">
         <v>150</v>
       </c>
-      <c r="I32" s="5">
-        <v>100</v>
-      </c>
       <c r="J32" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K32" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L32" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A33" s="5">
         <v>52711</v>
       </c>
@@ -3597,19 +3716,22 @@
         <v>53</v>
       </c>
       <c r="H33" s="5">
+        <v>0</v>
+      </c>
+      <c r="I33" s="5">
         <v>5</v>
       </c>
-      <c r="I33" s="5">
-        <v>100</v>
-      </c>
       <c r="J33" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K33" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L33" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A34" s="5">
         <v>52712</v>
       </c>
@@ -3632,19 +3754,22 @@
         <v>53</v>
       </c>
       <c r="H34" s="5">
+        <v>0</v>
+      </c>
+      <c r="I34" s="5">
         <v>10</v>
       </c>
-      <c r="I34" s="5">
-        <v>100</v>
-      </c>
       <c r="J34" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K34" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L34" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A35" s="5">
         <v>52713</v>
       </c>
@@ -3667,19 +3792,22 @@
         <v>53</v>
       </c>
       <c r="H35" s="5">
+        <v>0</v>
+      </c>
+      <c r="I35" s="5">
         <v>20</v>
       </c>
-      <c r="I35" s="5">
+      <c r="J35" s="5">
         <v>200</v>
       </c>
-      <c r="J35" s="5">
-        <v>0</v>
-      </c>
       <c r="K35" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L35" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A36" s="5">
         <v>52811</v>
       </c>
@@ -3702,19 +3830,22 @@
         <v>80</v>
       </c>
       <c r="H36" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I36" s="5">
+        <v>1</v>
+      </c>
+      <c r="J36" s="5">
         <v>150</v>
       </c>
-      <c r="J36" s="5">
-        <v>0</v>
-      </c>
       <c r="K36" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L36" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A37" s="5">
         <v>52821</v>
       </c>
@@ -3737,15 +3868,18 @@
         <v>81</v>
       </c>
       <c r="H37" s="5">
+        <v>2</v>
+      </c>
+      <c r="I37" s="5">
         <v>10</v>
       </c>
-      <c r="I37" s="5">
+      <c r="J37" s="5">
         <v>150</v>
       </c>
-      <c r="J37" s="5">
-        <v>0</v>
-      </c>
       <c r="K37" s="5">
+        <v>0</v>
+      </c>
+      <c r="L37" s="5">
         <v>0</v>
       </c>
     </row>

--- a/Client/Assets/11. GameData/Pass.xlsx
+++ b/Client/Assets/11. GameData/Pass.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lcmbb\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fda0e400ac064334/Be_greatman/01 Project/★미야옹 파이터즈 클럽/09 Season Pass/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5CC2E3-F962-41D9-A688-767054B3CBCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{3B5CC2E3-F962-41D9-A688-767054B3CBCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83034FA2-1FAA-475E-AFEB-35CC59CADDBB}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="535" activeTab="2" xr2:uid="{E3B10073-6739-413D-9047-29D24A9ED330}"/>
   </bookViews>
   <sheets>
     <sheet name="Pass_Info" sheetId="4" r:id="rId1"/>
-    <sheet name="Pass_List" sheetId="1" r:id="rId2"/>
-    <sheet name="Pass_Mission" sheetId="2" r:id="rId3"/>
+    <sheet name="Pass_List" sheetId="5" r:id="rId2"/>
+    <sheet name="Pass_Level" sheetId="1" r:id="rId3"/>
+    <sheet name="Pass_Mission" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -148,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="83">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -178,9 +179,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[시즌1] 미야옹 패스</t>
-  </si>
-  <si>
     <t>Reward_Item_Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -461,6 +459,10 @@
   </si>
   <si>
     <t>Required_Item_Grade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -468,7 +470,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -500,12 +502,6 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -589,7 +585,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -611,17 +607,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1029,7 +1019,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1042,123 +1032,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="12" t="s">
-        <v>73</v>
-      </c>
     </row>
     <row r="2" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="8">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="8" t="s">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="8">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="8">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="8">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="8">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="8" t="s">
+    <row r="7" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="8">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="8" t="s">
+    <row r="9" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="8">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="10" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
     </row>
     <row r="11" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
     </row>
     <row r="12" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="13" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1170,31 +1160,78 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC616978-B69C-4F7D-8301-6F88E773EBCB}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.8984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="3">
+        <v>601</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4">
+        <v>45573</v>
+      </c>
+      <c r="D2" s="4">
+        <v>72686</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A74E4F3-3BB8-4CF3-AC0A-3F86C309575D}">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8.69921875" customWidth="1"/>
-    <col min="2" max="2" width="19.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.796875" customWidth="1"/>
     <col min="4" max="4" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.69921875" customWidth="1"/>
+    <col min="5" max="5" width="10.09765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.19921875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.69921875" customWidth="1"/>
+    <col min="8" max="8" width="12.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -1203,27 +1240,21 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <v>60101</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
+      <c r="B2" s="3">
+        <v>601</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
@@ -1234,25 +1265,19 @@
       <c r="E2" s="3">
         <v>1</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="8">
         <v>100001</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="8">
         <v>800</v>
       </c>
-      <c r="H2" s="4">
-        <v>45573</v>
-      </c>
-      <c r="I2" s="4">
-        <v>72686</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>60102</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>2</v>
+      <c r="B3" s="3">
+        <v>601</v>
       </c>
       <c r="C3" s="3">
         <v>2</v>
@@ -1263,25 +1288,19 @@
       <c r="E3" s="3">
         <v>1</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <v>100001</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="8">
         <v>800</v>
       </c>
-      <c r="H3" s="4">
-        <v>45573</v>
-      </c>
-      <c r="I3" s="4">
-        <v>72686</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>60103</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
+      <c r="B4" s="3">
+        <v>601</v>
       </c>
       <c r="C4" s="3">
         <v>3</v>
@@ -1295,22 +1314,16 @@
       <c r="F4">
         <v>341003</v>
       </c>
-      <c r="G4" s="9">
-        <v>1</v>
-      </c>
-      <c r="H4" s="4">
-        <v>45573</v>
-      </c>
-      <c r="I4" s="4">
-        <v>72686</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="G4" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>60104</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>7</v>
+      <c r="B5" s="3">
+        <v>601</v>
       </c>
       <c r="C5" s="3">
         <v>4</v>
@@ -1321,25 +1334,19 @@
       <c r="E5" s="3">
         <v>1</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>100001</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <v>800</v>
       </c>
-      <c r="H5" s="4">
-        <v>45573</v>
-      </c>
-      <c r="I5" s="4">
-        <v>72686</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>60105</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>7</v>
+      <c r="B6" s="3">
+        <v>601</v>
       </c>
       <c r="C6" s="3">
         <v>5</v>
@@ -1350,25 +1357,19 @@
       <c r="E6" s="3">
         <v>1</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <v>100001</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="8">
         <v>800</v>
       </c>
-      <c r="H6" s="4">
-        <v>45573</v>
-      </c>
-      <c r="I6" s="4">
-        <v>72686</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>60106</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>7</v>
+      <c r="B7" s="3">
+        <v>601</v>
       </c>
       <c r="C7" s="3">
         <v>6</v>
@@ -1382,22 +1383,16 @@
       <c r="F7">
         <v>341017</v>
       </c>
-      <c r="G7" s="9">
-        <v>1</v>
-      </c>
-      <c r="H7" s="4">
-        <v>45573</v>
-      </c>
-      <c r="I7" s="4">
-        <v>72686</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="G7" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>60107</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>7</v>
+      <c r="B8" s="3">
+        <v>601</v>
       </c>
       <c r="C8" s="3">
         <v>7</v>
@@ -1408,25 +1403,19 @@
       <c r="E8" s="3">
         <v>1</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="8">
         <v>100001</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="8">
         <v>800</v>
       </c>
-      <c r="H8" s="4">
-        <v>45573</v>
-      </c>
-      <c r="I8" s="4">
-        <v>72686</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>60108</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>7</v>
+      <c r="B9" s="3">
+        <v>601</v>
       </c>
       <c r="C9" s="3">
         <v>8</v>
@@ -1437,25 +1426,19 @@
       <c r="E9" s="3">
         <v>1</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="11">
         <v>341019</v>
       </c>
-      <c r="G9" s="9">
-        <v>1</v>
-      </c>
-      <c r="H9" s="4">
-        <v>45573</v>
-      </c>
-      <c r="I9" s="4">
-        <v>72686</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="G9" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>60109</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3">
+        <v>601</v>
       </c>
       <c r="C10" s="3">
         <v>9</v>
@@ -1469,22 +1452,16 @@
       <c r="F10">
         <v>341006</v>
       </c>
-      <c r="G10" s="9">
-        <v>1</v>
-      </c>
-      <c r="H10" s="4">
-        <v>45573</v>
-      </c>
-      <c r="I10" s="4">
-        <v>72686</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="G10" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>60110</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>7</v>
+      <c r="B11" s="3">
+        <v>601</v>
       </c>
       <c r="C11" s="3">
         <v>10</v>
@@ -1495,262 +1472,208 @@
       <c r="E11" s="3">
         <v>1</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="8">
         <v>201019</v>
       </c>
-      <c r="G11" s="9">
-        <v>1</v>
-      </c>
-      <c r="H11" s="4">
-        <v>45573</v>
-      </c>
-      <c r="I11" s="4">
-        <v>72686</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="G11" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>60111</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>2</v>
+      <c r="B12" s="3">
+        <v>601</v>
       </c>
       <c r="C12" s="3">
         <v>11</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <v>100</v>
       </c>
       <c r="E12" s="3">
         <v>1</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="8">
         <v>100001</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="8">
         <v>800</v>
       </c>
-      <c r="H12" s="10">
-        <v>45573</v>
-      </c>
-      <c r="I12" s="10">
-        <v>72686</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>60112</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>2</v>
+      <c r="B13" s="3">
+        <v>601</v>
       </c>
       <c r="C13" s="3">
         <v>12</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="7">
         <v>100</v>
       </c>
       <c r="E13" s="3">
         <v>1</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="8">
         <v>100001</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="8">
         <v>800</v>
       </c>
-      <c r="H13" s="10">
-        <v>45573</v>
-      </c>
-      <c r="I13" s="10">
-        <v>72686</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <v>60113</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>7</v>
+      <c r="B14" s="3">
+        <v>601</v>
       </c>
       <c r="C14" s="3">
         <v>13</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="7">
         <v>100</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="8">
         <v>341023</v>
       </c>
-      <c r="G14" s="9">
-        <v>1</v>
-      </c>
-      <c r="H14" s="10">
-        <v>45573</v>
-      </c>
-      <c r="I14" s="10">
-        <v>72686</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="G14" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <v>60114</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>7</v>
+      <c r="B15" s="3">
+        <v>601</v>
       </c>
       <c r="C15" s="3">
         <v>14</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="7">
         <v>100</v>
       </c>
       <c r="E15" s="3">
         <v>1</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="8">
         <v>100001</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="8">
         <v>800</v>
       </c>
-      <c r="H15" s="10">
-        <v>45573</v>
-      </c>
-      <c r="I15" s="10">
-        <v>72686</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <v>60115</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>7</v>
+      <c r="B16" s="3">
+        <v>601</v>
       </c>
       <c r="C16" s="3">
         <v>15</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="7">
         <v>100</v>
       </c>
       <c r="E16" s="3">
         <v>1</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="8">
         <v>100001</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="8">
         <v>800</v>
       </c>
-      <c r="H16" s="10">
-        <v>45573</v>
-      </c>
-      <c r="I16" s="10">
-        <v>72686</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <v>60116</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>7</v>
+      <c r="B17" s="3">
+        <v>601</v>
       </c>
       <c r="C17" s="3">
         <v>16</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="7">
         <v>100</v>
       </c>
       <c r="E17" s="3">
         <v>1</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="8">
         <v>341027</v>
       </c>
-      <c r="G17" s="9">
-        <v>1</v>
-      </c>
-      <c r="H17" s="10">
-        <v>45573</v>
-      </c>
-      <c r="I17" s="10">
-        <v>72686</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="G17" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <v>60117</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>7</v>
+      <c r="B18" s="3">
+        <v>601</v>
       </c>
       <c r="C18" s="3">
         <v>17</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="7">
         <v>100</v>
       </c>
       <c r="E18" s="3">
         <v>1</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="8">
         <v>100001</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="8">
         <v>800</v>
       </c>
-      <c r="H18" s="10">
-        <v>45573</v>
-      </c>
-      <c r="I18" s="10">
-        <v>72686</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <v>60118</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>7</v>
+      <c r="B19" s="3">
+        <v>601</v>
       </c>
       <c r="C19" s="3">
         <v>18</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="7">
         <v>100</v>
       </c>
       <c r="E19" s="3">
         <v>1</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="8">
         <v>100001</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="8">
         <v>800</v>
       </c>
-      <c r="H19" s="10">
-        <v>45573</v>
-      </c>
-      <c r="I19" s="10">
-        <v>72686</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <v>60119</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>7</v>
+      <c r="B20" s="3">
+        <v>601</v>
       </c>
       <c r="C20" s="3">
         <v>19</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="7">
         <v>100</v>
       </c>
       <c r="E20" s="3">
@@ -1759,80 +1682,62 @@
       <c r="F20">
         <v>313001</v>
       </c>
-      <c r="G20" s="9">
-        <v>1</v>
-      </c>
-      <c r="H20" s="10">
-        <v>45573</v>
-      </c>
-      <c r="I20" s="10">
-        <v>72686</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="G20" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <v>60120</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>7</v>
+      <c r="B21" s="3">
+        <v>601</v>
       </c>
       <c r="C21" s="3">
         <v>20</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="7">
         <v>100</v>
       </c>
       <c r="E21" s="3">
         <v>1</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="8">
         <v>100002</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="8">
         <v>1500</v>
       </c>
-      <c r="H21" s="10">
-        <v>45573</v>
-      </c>
-      <c r="I21" s="10">
-        <v>72686</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <v>60121</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>7</v>
+      <c r="B22" s="3">
+        <v>601</v>
       </c>
       <c r="C22" s="3">
         <v>21</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="7">
         <v>100</v>
       </c>
       <c r="E22" s="3">
         <v>1</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="8">
         <v>100001</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="8">
         <v>500</v>
       </c>
-      <c r="H22" s="10">
-        <v>45573</v>
-      </c>
-      <c r="I22" s="10">
-        <v>72686</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="5">
         <v>60201</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>2</v>
+      <c r="B23" s="5">
+        <v>601</v>
       </c>
       <c r="C23" s="5">
         <v>1</v>
@@ -1849,19 +1754,13 @@
       <c r="G23" s="6">
         <v>50</v>
       </c>
-      <c r="H23" s="7">
-        <v>45573</v>
-      </c>
-      <c r="I23" s="7">
-        <v>72686</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="5">
         <v>60202</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>2</v>
+      <c r="B24" s="5">
+        <v>601</v>
       </c>
       <c r="C24" s="5">
         <v>2</v>
@@ -1878,19 +1777,13 @@
       <c r="G24" s="6">
         <v>50</v>
       </c>
-      <c r="H24" s="7">
-        <v>45573</v>
-      </c>
-      <c r="I24" s="7">
-        <v>72686</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="5">
         <v>60203</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>7</v>
+      <c r="B25" s="5">
+        <v>601</v>
       </c>
       <c r="C25" s="5">
         <v>3</v>
@@ -1907,19 +1800,13 @@
       <c r="G25" s="6">
         <v>1</v>
       </c>
-      <c r="H25" s="7">
-        <v>45573</v>
-      </c>
-      <c r="I25" s="7">
-        <v>72686</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="5">
         <v>60204</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>7</v>
+      <c r="B26" s="5">
+        <v>601</v>
       </c>
       <c r="C26" s="5">
         <v>4</v>
@@ -1936,19 +1823,13 @@
       <c r="G26" s="6">
         <v>50</v>
       </c>
-      <c r="H26" s="7">
-        <v>45573</v>
-      </c>
-      <c r="I26" s="7">
-        <v>72686</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="5">
         <v>60205</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>7</v>
+      <c r="B27" s="5">
+        <v>601</v>
       </c>
       <c r="C27" s="5">
         <v>5</v>
@@ -1965,19 +1846,13 @@
       <c r="G27" s="6">
         <v>50</v>
       </c>
-      <c r="H27" s="7">
-        <v>45573</v>
-      </c>
-      <c r="I27" s="7">
-        <v>72686</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="5">
         <v>60206</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>7</v>
+      <c r="B28" s="5">
+        <v>601</v>
       </c>
       <c r="C28" s="5">
         <v>6</v>
@@ -1994,19 +1869,13 @@
       <c r="G28" s="6">
         <v>1</v>
       </c>
-      <c r="H28" s="7">
-        <v>45573</v>
-      </c>
-      <c r="I28" s="7">
-        <v>72686</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="5">
         <v>60207</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>7</v>
+      <c r="B29" s="5">
+        <v>601</v>
       </c>
       <c r="C29" s="5">
         <v>7</v>
@@ -2023,19 +1892,13 @@
       <c r="G29" s="6">
         <v>50</v>
       </c>
-      <c r="H29" s="7">
-        <v>45573</v>
-      </c>
-      <c r="I29" s="7">
-        <v>72686</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="5">
         <v>60208</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>7</v>
+      <c r="B30" s="5">
+        <v>601</v>
       </c>
       <c r="C30" s="5">
         <v>8</v>
@@ -2052,19 +1915,13 @@
       <c r="G30" s="6">
         <v>50</v>
       </c>
-      <c r="H30" s="7">
-        <v>45573</v>
-      </c>
-      <c r="I30" s="7">
-        <v>72686</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="5">
         <v>60209</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>7</v>
+      <c r="B31" s="5">
+        <v>601</v>
       </c>
       <c r="C31" s="5">
         <v>9</v>
@@ -2081,19 +1938,13 @@
       <c r="G31" s="6">
         <v>1</v>
       </c>
-      <c r="H31" s="7">
-        <v>45573</v>
-      </c>
-      <c r="I31" s="7">
-        <v>72686</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="5">
         <v>60210</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>7</v>
+      <c r="B32" s="5">
+        <v>601</v>
       </c>
       <c r="C32" s="5">
         <v>10</v>
@@ -2110,19 +1961,13 @@
       <c r="G32" s="6">
         <v>1</v>
       </c>
-      <c r="H32" s="7">
-        <v>45573</v>
-      </c>
-      <c r="I32" s="7">
-        <v>72686</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="5">
         <v>60211</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>2</v>
+      <c r="B33" s="5">
+        <v>601</v>
       </c>
       <c r="C33" s="5">
         <v>11</v>
@@ -2139,19 +1984,13 @@
       <c r="G33" s="6">
         <v>50</v>
       </c>
-      <c r="H33" s="7">
-        <v>45573</v>
-      </c>
-      <c r="I33" s="7">
-        <v>72686</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" s="5">
         <v>60212</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>2</v>
+      <c r="B34" s="5">
+        <v>601</v>
       </c>
       <c r="C34" s="5">
         <v>12</v>
@@ -2168,19 +2007,13 @@
       <c r="G34" s="6">
         <v>50</v>
       </c>
-      <c r="H34" s="7">
-        <v>45573</v>
-      </c>
-      <c r="I34" s="7">
-        <v>72686</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="5">
         <v>60213</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>7</v>
+      <c r="B35" s="5">
+        <v>601</v>
       </c>
       <c r="C35" s="5">
         <v>13</v>
@@ -2197,19 +2030,13 @@
       <c r="G35" s="6">
         <v>1</v>
       </c>
-      <c r="H35" s="7">
-        <v>45573</v>
-      </c>
-      <c r="I35" s="7">
-        <v>72686</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="5">
         <v>60214</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>7</v>
+      <c r="B36" s="5">
+        <v>601</v>
       </c>
       <c r="C36" s="5">
         <v>14</v>
@@ -2226,19 +2053,13 @@
       <c r="G36" s="6">
         <v>50</v>
       </c>
-      <c r="H36" s="7">
-        <v>45573</v>
-      </c>
-      <c r="I36" s="7">
-        <v>72686</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" s="5">
         <v>60215</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>7</v>
+      <c r="B37" s="5">
+        <v>601</v>
       </c>
       <c r="C37" s="5">
         <v>15</v>
@@ -2255,19 +2076,13 @@
       <c r="G37" s="6">
         <v>50</v>
       </c>
-      <c r="H37" s="7">
-        <v>45573</v>
-      </c>
-      <c r="I37" s="7">
-        <v>72686</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38" s="5">
         <v>60216</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>7</v>
+      <c r="B38" s="5">
+        <v>601</v>
       </c>
       <c r="C38" s="5">
         <v>16</v>
@@ -2284,19 +2099,13 @@
       <c r="G38" s="6">
         <v>1</v>
       </c>
-      <c r="H38" s="7">
-        <v>45573</v>
-      </c>
-      <c r="I38" s="7">
-        <v>72686</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39" s="5">
         <v>60217</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>7</v>
+      <c r="B39" s="5">
+        <v>601</v>
       </c>
       <c r="C39" s="5">
         <v>17</v>
@@ -2313,19 +2122,13 @@
       <c r="G39" s="6">
         <v>50</v>
       </c>
-      <c r="H39" s="7">
-        <v>45573</v>
-      </c>
-      <c r="I39" s="7">
-        <v>72686</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40" s="5">
         <v>60218</v>
       </c>
-      <c r="B40" s="5" t="s">
-        <v>7</v>
+      <c r="B40" s="5">
+        <v>601</v>
       </c>
       <c r="C40" s="5">
         <v>18</v>
@@ -2342,19 +2145,13 @@
       <c r="G40" s="6">
         <v>50</v>
       </c>
-      <c r="H40" s="7">
-        <v>45573</v>
-      </c>
-      <c r="I40" s="7">
-        <v>72686</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41" s="5">
         <v>60219</v>
       </c>
-      <c r="B41" s="5" t="s">
-        <v>7</v>
+      <c r="B41" s="5">
+        <v>601</v>
       </c>
       <c r="C41" s="5">
         <v>19</v>
@@ -2371,19 +2168,13 @@
       <c r="G41" s="6">
         <v>1</v>
       </c>
-      <c r="H41" s="7">
-        <v>45573</v>
-      </c>
-      <c r="I41" s="7">
-        <v>72686</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42" s="5">
         <v>60220</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>7</v>
+      <c r="B42" s="5">
+        <v>601</v>
       </c>
       <c r="C42" s="5">
         <v>20</v>
@@ -2400,19 +2191,13 @@
       <c r="G42" s="6">
         <v>1</v>
       </c>
-      <c r="H42" s="7">
-        <v>45573</v>
-      </c>
-      <c r="I42" s="7">
-        <v>72686</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43" s="5">
         <v>60221</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>7</v>
+      <c r="B43" s="5">
+        <v>601</v>
       </c>
       <c r="C43" s="5">
         <v>21</v>
@@ -2428,12 +2213,6 @@
       </c>
       <c r="G43" s="6">
         <v>30</v>
-      </c>
-      <c r="H43" s="7">
-        <v>45573</v>
-      </c>
-      <c r="I43" s="7">
-        <v>72686</v>
       </c>
     </row>
   </sheetData>
@@ -2443,11 +2222,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4561621-BAF4-4FB5-8F15-B71B1A49C200}">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
@@ -2482,302 +2261,302 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A2" s="7">
+        <v>51011</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7">
+        <v>1</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="7">
+        <v>1</v>
+      </c>
+      <c r="J2" s="7">
+        <v>15</v>
+      </c>
+      <c r="K2" s="7">
+        <v>100001</v>
+      </c>
+      <c r="L2" s="7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A3" s="7">
+        <v>51021</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7">
+        <v>2</v>
+      </c>
+      <c r="D3" s="7">
+        <v>2</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="G3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="7">
+        <v>3</v>
+      </c>
+      <c r="J3" s="7">
+        <v>15</v>
+      </c>
+      <c r="K3" s="7">
+        <v>100001</v>
+      </c>
+      <c r="L3" s="7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A4" s="7">
+        <v>51031</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7">
+        <v>3</v>
+      </c>
+      <c r="D4" s="7">
+        <v>3</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>3</v>
+      </c>
+      <c r="J4" s="7">
+        <v>15</v>
+      </c>
+      <c r="K4" s="7">
+        <v>100001</v>
+      </c>
+      <c r="L4" s="7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A5" s="7">
+        <v>51041</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7">
+        <v>4</v>
+      </c>
+      <c r="D5" s="7">
+        <v>4</v>
+      </c>
+      <c r="E5" s="7">
+        <v>1</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="G5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1</v>
+      </c>
+      <c r="J5" s="7">
+        <v>20</v>
+      </c>
+      <c r="K5" s="7">
+        <v>100001</v>
+      </c>
+      <c r="L5" s="7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A6" s="7">
+        <v>51051</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7">
+        <v>5</v>
+      </c>
+      <c r="D6" s="7">
+        <v>5</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>3</v>
+      </c>
+      <c r="J6" s="7">
+        <v>20</v>
+      </c>
+      <c r="K6" s="7">
+        <v>100001</v>
+      </c>
+      <c r="L6" s="7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A7" s="7">
+        <v>51061</v>
+      </c>
+      <c r="B7" s="7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="7">
+        <v>6</v>
+      </c>
+      <c r="D7" s="7">
+        <v>6</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>5</v>
+      </c>
+      <c r="J7" s="7">
+        <v>20</v>
+      </c>
+      <c r="K7" s="7">
+        <v>100001</v>
+      </c>
+      <c r="L7" s="7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A8" s="7">
+        <v>51071</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7">
+        <v>7</v>
+      </c>
+      <c r="D8" s="7">
+        <v>7</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
         <v>10</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A2" s="8">
-        <v>51011</v>
-      </c>
-      <c r="B2" s="8">
-        <v>1</v>
-      </c>
-      <c r="C2" s="8">
-        <v>1</v>
-      </c>
-      <c r="D2" s="8">
-        <v>1</v>
-      </c>
-      <c r="E2" s="8">
-        <v>1</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="8">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8">
-        <v>1</v>
-      </c>
-      <c r="J2" s="8">
-        <v>15</v>
-      </c>
-      <c r="K2" s="8">
+      <c r="J8" s="7">
+        <v>20</v>
+      </c>
+      <c r="K8" s="7">
         <v>100001</v>
       </c>
-      <c r="L2" s="8">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A3" s="8">
-        <v>51021</v>
-      </c>
-      <c r="B3" s="8">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8">
-        <v>2</v>
-      </c>
-      <c r="D3" s="8">
-        <v>2</v>
-      </c>
-      <c r="E3" s="8">
-        <v>1</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="8">
-        <v>0</v>
-      </c>
-      <c r="I3" s="8">
-        <v>3</v>
-      </c>
-      <c r="J3" s="8">
-        <v>15</v>
-      </c>
-      <c r="K3" s="8">
-        <v>100001</v>
-      </c>
-      <c r="L3" s="8">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A4" s="8">
-        <v>51031</v>
-      </c>
-      <c r="B4" s="8">
-        <v>1</v>
-      </c>
-      <c r="C4" s="8">
-        <v>3</v>
-      </c>
-      <c r="D4" s="8">
-        <v>3</v>
-      </c>
-      <c r="E4" s="8">
-        <v>1</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="8">
-        <v>0</v>
-      </c>
-      <c r="I4" s="8">
-        <v>3</v>
-      </c>
-      <c r="J4" s="8">
-        <v>15</v>
-      </c>
-      <c r="K4" s="8">
-        <v>100001</v>
-      </c>
-      <c r="L4" s="8">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A5" s="8">
-        <v>51041</v>
-      </c>
-      <c r="B5" s="8">
-        <v>1</v>
-      </c>
-      <c r="C5" s="8">
-        <v>4</v>
-      </c>
-      <c r="D5" s="8">
-        <v>4</v>
-      </c>
-      <c r="E5" s="8">
-        <v>1</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="8">
-        <v>0</v>
-      </c>
-      <c r="I5" s="8">
-        <v>1</v>
-      </c>
-      <c r="J5" s="8">
-        <v>20</v>
-      </c>
-      <c r="K5" s="8">
-        <v>100001</v>
-      </c>
-      <c r="L5" s="8">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A6" s="8">
-        <v>51051</v>
-      </c>
-      <c r="B6" s="8">
-        <v>1</v>
-      </c>
-      <c r="C6" s="8">
-        <v>5</v>
-      </c>
-      <c r="D6" s="8">
-        <v>5</v>
-      </c>
-      <c r="E6" s="8">
-        <v>1</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="8">
-        <v>0</v>
-      </c>
-      <c r="I6" s="8">
-        <v>3</v>
-      </c>
-      <c r="J6" s="8">
-        <v>20</v>
-      </c>
-      <c r="K6" s="8">
-        <v>100001</v>
-      </c>
-      <c r="L6" s="8">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A7" s="8">
-        <v>51061</v>
-      </c>
-      <c r="B7" s="8">
-        <v>1</v>
-      </c>
-      <c r="C7" s="8">
-        <v>6</v>
-      </c>
-      <c r="D7" s="8">
-        <v>6</v>
-      </c>
-      <c r="E7" s="8">
-        <v>1</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="H7" s="8">
-        <v>0</v>
-      </c>
-      <c r="I7" s="8">
-        <v>5</v>
-      </c>
-      <c r="J7" s="8">
-        <v>20</v>
-      </c>
-      <c r="K7" s="8">
-        <v>100001</v>
-      </c>
-      <c r="L7" s="8">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A8" s="8">
-        <v>51071</v>
-      </c>
-      <c r="B8" s="8">
-        <v>1</v>
-      </c>
-      <c r="C8" s="8">
-        <v>7</v>
-      </c>
-      <c r="D8" s="8">
-        <v>7</v>
-      </c>
-      <c r="E8" s="8">
-        <v>1</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="H8" s="8">
-        <v>0</v>
-      </c>
-      <c r="I8" s="8">
-        <v>10</v>
-      </c>
-      <c r="J8" s="8">
-        <v>20</v>
-      </c>
-      <c r="K8" s="8">
-        <v>100001</v>
-      </c>
-      <c r="L8" s="8">
+      <c r="L8" s="7">
         <v>500</v>
       </c>
     </row>
@@ -2798,10 +2577,10 @@
         <v>1</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H9" s="5">
         <v>0</v>
@@ -2836,10 +2615,10 @@
         <v>2</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H10" s="5">
         <v>0</v>
@@ -2874,10 +2653,10 @@
         <v>3</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H11" s="5">
         <v>0</v>
@@ -2912,10 +2691,10 @@
         <v>4</v>
       </c>
       <c r="F12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="H12" s="5">
         <v>0</v>
@@ -2950,10 +2729,10 @@
         <v>1</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H13" s="5">
         <v>0</v>
@@ -2988,10 +2767,10 @@
         <v>2</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H14" s="5">
         <v>0</v>
@@ -3026,10 +2805,10 @@
         <v>3</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H15" s="5">
         <v>0</v>
@@ -3064,10 +2843,10 @@
         <v>4</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H16" s="5">
         <v>0</v>
@@ -3102,10 +2881,10 @@
         <v>1</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H17" s="5">
         <v>0</v>
@@ -3140,10 +2919,10 @@
         <v>2</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H18" s="5">
         <v>0</v>
@@ -3178,10 +2957,10 @@
         <v>3</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H19" s="5">
         <v>0</v>
@@ -3216,10 +2995,10 @@
         <v>1</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H20" s="5">
         <v>0</v>
@@ -3254,10 +3033,10 @@
         <v>2</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H21" s="5">
         <v>0</v>
@@ -3292,10 +3071,10 @@
         <v>3</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H22" s="5">
         <v>0</v>
@@ -3330,10 +3109,10 @@
         <v>4</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H23" s="5">
         <v>0</v>
@@ -3368,10 +3147,10 @@
         <v>5</v>
       </c>
       <c r="F24" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G24" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="H24" s="5">
         <v>0</v>
@@ -3406,10 +3185,10 @@
         <v>1</v>
       </c>
       <c r="F25" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>47</v>
       </c>
       <c r="H25" s="5">
         <v>0</v>
@@ -3444,10 +3223,10 @@
         <v>2</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H26" s="5">
         <v>0</v>
@@ -3482,10 +3261,10 @@
         <v>3</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" s="5">
         <v>0</v>
@@ -3520,10 +3299,10 @@
         <v>1</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H28" s="5">
         <v>0</v>
@@ -3558,10 +3337,10 @@
         <v>2</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H29" s="5">
         <v>0</v>
@@ -3596,10 +3375,10 @@
         <v>3</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H30" s="5">
         <v>0</v>
@@ -3634,10 +3413,10 @@
         <v>4</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H31" s="5">
         <v>0</v>
@@ -3672,10 +3451,10 @@
         <v>5</v>
       </c>
       <c r="F32" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G32" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="H32" s="5">
         <v>0</v>
@@ -3710,10 +3489,10 @@
         <v>1</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H33" s="5">
         <v>0</v>
@@ -3748,10 +3527,10 @@
         <v>2</v>
       </c>
       <c r="F34" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G34" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="H34" s="5">
         <v>0</v>
@@ -3786,10 +3565,10 @@
         <v>3</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H35" s="5">
         <v>0</v>
@@ -3824,10 +3603,10 @@
         <v>1</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H36" s="5">
         <v>3</v>
@@ -3862,10 +3641,10 @@
         <v>1</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H37" s="5">
         <v>2</v>

--- a/Client/Assets/11. GameData/Pass.xlsx
+++ b/Client/Assets/11. GameData/Pass.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fda0e400ac064334/Be_greatman/01 Project/★미야옹 파이터즈 클럽/09 Season Pass/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Download2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{3B5CC2E3-F962-41D9-A688-767054B3CBCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83034FA2-1FAA-475E-AFEB-35CC59CADDBB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92E73C3-215C-42C1-B8C9-47FE7107CFD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="535" activeTab="2" xr2:uid="{E3B10073-6739-413D-9047-29D24A9ED330}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27990" windowHeight="16440" tabRatio="535" activeTab="3" xr2:uid="{E3B10073-6739-413D-9047-29D24A9ED330}"/>
   </bookViews>
   <sheets>
     <sheet name="Pass_Info" sheetId="4" r:id="rId1"/>
@@ -88,14 +88,28 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={06EDA498-2F71-4579-9D6B-A579ACC4823E}</author>
     <author>tc={378FB66A-BA3D-44D6-B82A-F025F88A37CD}</author>
     <author>tc={97C28FAB-3096-4512-B210-0B5909A7B492}</author>
+    <author>tc={182CAFDE-15AD-4205-861F-AC67D374C96E}</author>
     <author>tc={0DE01F69-01C9-4B8E-9BD4-88709C5197A0}</author>
     <author>tc={18E7BADE-E384-4BE8-AA3B-F1C1704A89F6}</author>
     <author>tc={66631B6D-140F-4AE7-BA26-FAEA338D5452}</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{378FB66A-BA3D-44D6-B82A-F025F88A37CD}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{06EDA498-2F71-4579-9D6B-A579ACC4823E}">
+      <text>
+        <t xml:space="preserve">[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    600000 = 미션 전용
+1000 = 미션 타입 (1 or 2)
+100~10 = 미션 그룹(Mission_Group)
+1 = 미션 단계(Mission_Step)
+</t>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{378FB66A-BA3D-44D6-B82A-F025F88A37CD}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -105,7 +119,7 @@
 -패스미션: 총 한번만 가능한 미션</t>
       </text>
     </comment>
-    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{97C28FAB-3096-4512-B210-0B5909A7B492}">
+    <comment ref="D1" authorId="2" shapeId="0" xr:uid="{97C28FAB-3096-4512-B210-0B5909A7B492}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -120,7 +134,20 @@
 8=아이템 획득(뽑기)</t>
       </text>
     </comment>
-    <comment ref="H1" authorId="2" shapeId="0" xr:uid="{0DE01F69-01C9-4B8E-9BD4-88709C5197A0}">
+    <comment ref="E1" authorId="3" shapeId="0" xr:uid="{182CAFDE-15AD-4205-861F-AC67D374C96E}">
+      <text>
+        <t xml:space="preserve">[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    1 / 11 =로그인
+2 / 21 = 플레이
+…
+8 / 81 / 82 = 아이템 수집
+81=유니크 아이템 / 82 = 레어 아이템
+</t>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="4" shapeId="0" xr:uid="{0DE01F69-01C9-4B8E-9BD4-88709C5197A0}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -128,7 +155,7 @@
     등급 아이템 수집을 위해 추가</t>
       </text>
     </comment>
-    <comment ref="J1" authorId="3" shapeId="0" xr:uid="{18E7BADE-E384-4BE8-AA3B-F1C1704A89F6}">
+    <comment ref="K1" authorId="5" shapeId="0" xr:uid="{18E7BADE-E384-4BE8-AA3B-F1C1704A89F6}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -136,7 +163,7 @@
     획득할 패스 경험치</t>
       </text>
     </comment>
-    <comment ref="L1" authorId="4" shapeId="0" xr:uid="{66631B6D-140F-4AE7-BA26-FAEA338D5452}">
+    <comment ref="M1" authorId="6" shapeId="0" xr:uid="{66631B6D-140F-4AE7-BA26-FAEA338D5452}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -149,7 +176,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="83">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -470,7 +497,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -502,6 +529,12 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -987,12 +1020,19 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B1" dT="2024-11-14T14:40:34.39" personId="{36C43E8F-E806-4672-A3DE-BA0E07A7B13D}" id="{378FB66A-BA3D-44D6-B82A-F025F88A37CD}">
+  <threadedComment ref="A1" dT="2025-02-10T02:34:23.59" personId="{36C43E8F-E806-4672-A3DE-BA0E07A7B13D}" id="{06EDA498-2F71-4579-9D6B-A579ACC4823E}">
+    <text xml:space="preserve">600000 = 미션 전용
+1000 = 미션 타입 (1 or 2)
+100~10 = 미션 그룹(Mission_Group)
+1 = 미션 단계(Mission_Step)
+</text>
+  </threadedComment>
+  <threadedComment ref="C1" dT="2024-11-14T14:40:34.39" personId="{36C43E8F-E806-4672-A3DE-BA0E07A7B13D}" id="{378FB66A-BA3D-44D6-B82A-F025F88A37CD}">
     <text>1=일일미션, 2= 패스미션
 -일일 미션: 매일 00:00 초기화되는 미션
 -패스미션: 총 한번만 가능한 미션</text>
   </threadedComment>
-  <threadedComment ref="C1" dT="2024-11-14T14:34:01.70" personId="{36C43E8F-E806-4672-A3DE-BA0E07A7B13D}" id="{97C28FAB-3096-4512-B210-0B5909A7B492}">
+  <threadedComment ref="D1" dT="2024-11-14T14:34:01.70" personId="{36C43E8F-E806-4672-A3DE-BA0E07A7B13D}" id="{97C28FAB-3096-4512-B210-0B5909A7B492}">
     <text>1=출석 체크
 2=게임 플레이
 3=뽑기 진행
@@ -1002,13 +1042,21 @@
 7=그로기
 8=아이템 획득(뽑기)</text>
   </threadedComment>
-  <threadedComment ref="H1" dT="2025-02-05T08:41:50.71" personId="{36C43E8F-E806-4672-A3DE-BA0E07A7B13D}" id="{0DE01F69-01C9-4B8E-9BD4-88709C5197A0}">
+  <threadedComment ref="E1" dT="2025-02-10T02:32:50.18" personId="{36C43E8F-E806-4672-A3DE-BA0E07A7B13D}" id="{182CAFDE-15AD-4205-861F-AC67D374C96E}">
+    <text xml:space="preserve">1 / 11 =로그인
+2 / 21 = 플레이
+…
+8 / 81 / 82 = 아이템 수집
+81=유니크 아이템 / 82 = 레어 아이템
+</text>
+  </threadedComment>
+  <threadedComment ref="I1" dT="2025-02-05T08:41:50.71" personId="{36C43E8F-E806-4672-A3DE-BA0E07A7B13D}" id="{0DE01F69-01C9-4B8E-9BD4-88709C5197A0}">
     <text>등급 아이템 수집을 위해 추가</text>
   </threadedComment>
-  <threadedComment ref="J1" dT="2024-11-14T14:51:04.63" personId="{36C43E8F-E806-4672-A3DE-BA0E07A7B13D}" id="{18E7BADE-E384-4BE8-AA3B-F1C1704A89F6}">
+  <threadedComment ref="K1" dT="2024-11-14T14:51:04.63" personId="{36C43E8F-E806-4672-A3DE-BA0E07A7B13D}" id="{18E7BADE-E384-4BE8-AA3B-F1C1704A89F6}">
     <text>획득할 패스 경험치</text>
   </threadedComment>
-  <threadedComment ref="L1" dT="2024-11-14T14:55:02.05" personId="{36C43E8F-E806-4672-A3DE-BA0E07A7B13D}" id="{66631B6D-140F-4AE7-BA26-FAEA338D5452}">
+  <threadedComment ref="M1" dT="2024-11-14T14:55:02.05" personId="{36C43E8F-E806-4672-A3DE-BA0E07A7B13D}" id="{66631B6D-140F-4AE7-BA26-FAEA338D5452}">
     <text>보상 아이템 수량</text>
   </threadedComment>
 </ThreadedComments>
@@ -1022,16 +1070,16 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.19921875" customWidth="1"/>
+    <col min="1" max="1" width="3.25" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="54.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>71</v>
       </c>
@@ -1040,7 +1088,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -1051,7 +1099,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -1062,7 +1110,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -1073,7 +1121,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -1084,7 +1132,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -1095,7 +1143,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -1106,7 +1154,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -1117,7 +1165,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -1128,25 +1176,25 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
     </row>
-    <row r="11" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
     </row>
-    <row r="12" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="13" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
     </row>
@@ -1167,13 +1215,13 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1187,7 +1235,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>601</v>
       </c>
@@ -1211,22 +1259,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A74E4F3-3BB8-4CF3-AC0A-3F86C309575D}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.69921875" customWidth="1"/>
-    <col min="2" max="2" width="10.796875" customWidth="1"/>
-    <col min="4" max="4" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.09765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.75" customWidth="1"/>
+    <col min="2" max="2" width="10.75" customWidth="1"/>
+    <col min="4" max="4" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.69921875" customWidth="1"/>
+    <col min="8" max="8" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1249,7 +1297,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>60101</v>
       </c>
@@ -1272,7 +1320,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>60102</v>
       </c>
@@ -1295,7 +1343,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>60103</v>
       </c>
@@ -1318,7 +1366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>60104</v>
       </c>
@@ -1341,7 +1389,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>60105</v>
       </c>
@@ -1364,7 +1412,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>60106</v>
       </c>
@@ -1387,7 +1435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>60107</v>
       </c>
@@ -1410,7 +1458,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>60108</v>
       </c>
@@ -1433,7 +1481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>60109</v>
       </c>
@@ -1456,7 +1504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>60110</v>
       </c>
@@ -1479,7 +1527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>60111</v>
       </c>
@@ -1502,7 +1550,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>60112</v>
       </c>
@@ -1525,7 +1573,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>60113</v>
       </c>
@@ -1548,7 +1596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>60114</v>
       </c>
@@ -1571,7 +1619,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>60115</v>
       </c>
@@ -1594,7 +1642,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>60116</v>
       </c>
@@ -1617,7 +1665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>60117</v>
       </c>
@@ -1640,7 +1688,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>60118</v>
       </c>
@@ -1663,7 +1711,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>60119</v>
       </c>
@@ -1686,7 +1734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>60120</v>
       </c>
@@ -1709,7 +1757,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>60121</v>
       </c>
@@ -1732,7 +1780,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>60201</v>
       </c>
@@ -1755,7 +1803,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>60202</v>
       </c>
@@ -1778,7 +1826,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>60203</v>
       </c>
@@ -1801,7 +1849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>60204</v>
       </c>
@@ -1824,7 +1872,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>60205</v>
       </c>
@@ -1847,7 +1895,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>60206</v>
       </c>
@@ -1870,7 +1918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>60207</v>
       </c>
@@ -1893,7 +1941,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>60208</v>
       </c>
@@ -1916,7 +1964,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>60209</v>
       </c>
@@ -1939,7 +1987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>60210</v>
       </c>
@@ -1962,7 +2010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>60211</v>
       </c>
@@ -1985,7 +2033,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>60212</v>
       </c>
@@ -2008,7 +2056,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>60213</v>
       </c>
@@ -2031,7 +2079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>60214</v>
       </c>
@@ -2054,7 +2102,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>60215</v>
       </c>
@@ -2077,7 +2125,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>60216</v>
       </c>
@@ -2100,7 +2148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>60217</v>
       </c>
@@ -2123,7 +2171,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>60218</v>
       </c>
@@ -2146,7 +2194,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>60219</v>
       </c>
@@ -2169,7 +2217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>60220</v>
       </c>
@@ -2192,7 +2240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>60221</v>
       </c>
@@ -2224,82 +2272,86 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4561621-BAF4-4FB5-8F15-B71B1A49C200}">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5" customWidth="1"/>
-    <col min="2" max="2" width="7.19921875" customWidth="1"/>
-    <col min="3" max="3" width="16.8984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.8984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.09765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.3984375" customWidth="1"/>
-    <col min="10" max="11" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.09765625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.09765625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.09765625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.19921875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.3984375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="44" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.69921875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.19921875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="22.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.75" customWidth="1"/>
+    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="4" max="4" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.375" customWidth="1"/>
+    <col min="11" max="12" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="44" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="22.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
-        <v>51011</v>
-      </c>
-      <c r="B2" s="7">
-        <v>1</v>
+        <v>601011</v>
+      </c>
+      <c r="B2" s="3">
+        <v>601</v>
       </c>
       <c r="C2" s="7">
         <v>1</v>
@@ -2310,1355 +2362,1463 @@
       <c r="E2" s="7">
         <v>1</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="7">
+        <v>1</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
       <c r="I2" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" s="7">
+        <v>1</v>
+      </c>
+      <c r="K2" s="7">
         <v>15</v>
       </c>
-      <c r="K2" s="7">
+      <c r="L2" s="7">
         <v>100001</v>
       </c>
-      <c r="L2" s="7">
+      <c r="M2" s="7">
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
-        <v>51021</v>
-      </c>
-      <c r="B3" s="7">
-        <v>1</v>
+        <v>601021</v>
+      </c>
+      <c r="B3" s="3">
+        <v>601</v>
       </c>
       <c r="C3" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="7">
         <v>2</v>
       </c>
       <c r="E3" s="7">
-        <v>1</v>
-      </c>
-      <c r="F3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="7">
+        <v>1</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="7">
-        <v>0</v>
-      </c>
       <c r="I3" s="7">
+        <v>0</v>
+      </c>
+      <c r="J3" s="7">
         <v>3</v>
       </c>
-      <c r="J3" s="7">
+      <c r="K3" s="7">
         <v>15</v>
       </c>
-      <c r="K3" s="7">
+      <c r="L3" s="7">
         <v>100001</v>
       </c>
-      <c r="L3" s="7">
+      <c r="M3" s="7">
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
-        <v>51031</v>
-      </c>
-      <c r="B4" s="7">
-        <v>1</v>
+        <v>601031</v>
+      </c>
+      <c r="B4" s="3">
+        <v>601</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
         <v>3</v>
       </c>
       <c r="E4" s="7">
-        <v>1</v>
-      </c>
-      <c r="F4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="7">
+        <v>1</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
       <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7">
         <v>3</v>
       </c>
-      <c r="J4" s="7">
+      <c r="K4" s="7">
         <v>15</v>
       </c>
-      <c r="K4" s="7">
+      <c r="L4" s="7">
         <v>100001</v>
       </c>
-      <c r="L4" s="7">
+      <c r="M4" s="7">
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
-        <v>51041</v>
-      </c>
-      <c r="B5" s="7">
-        <v>1</v>
+        <v>601041</v>
+      </c>
+      <c r="B5" s="3">
+        <v>601</v>
       </c>
       <c r="C5" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
         <v>4</v>
       </c>
       <c r="E5" s="7">
-        <v>1</v>
-      </c>
-      <c r="F5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="7">
+        <v>1</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
       <c r="I5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7">
+        <v>1</v>
+      </c>
+      <c r="K5" s="7">
         <v>20</v>
       </c>
-      <c r="K5" s="7">
+      <c r="L5" s="7">
         <v>100001</v>
       </c>
-      <c r="L5" s="7">
+      <c r="M5" s="7">
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
-        <v>51051</v>
-      </c>
-      <c r="B6" s="7">
-        <v>1</v>
+        <v>601051</v>
+      </c>
+      <c r="B6" s="3">
+        <v>601</v>
       </c>
       <c r="C6" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D6" s="7">
         <v>5</v>
       </c>
       <c r="E6" s="7">
-        <v>1</v>
-      </c>
-      <c r="F6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
       <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7">
         <v>3</v>
       </c>
-      <c r="J6" s="7">
+      <c r="K6" s="7">
         <v>20</v>
       </c>
-      <c r="K6" s="7">
+      <c r="L6" s="7">
         <v>100001</v>
       </c>
-      <c r="L6" s="7">
+      <c r="M6" s="7">
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
-        <v>51061</v>
-      </c>
-      <c r="B7" s="7">
-        <v>1</v>
+        <v>601061</v>
+      </c>
+      <c r="B7" s="3">
+        <v>601</v>
       </c>
       <c r="C7" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
         <v>6</v>
       </c>
       <c r="E7" s="7">
-        <v>1</v>
-      </c>
-      <c r="F7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
       <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7">
         <v>5</v>
       </c>
-      <c r="J7" s="7">
+      <c r="K7" s="7">
         <v>20</v>
       </c>
-      <c r="K7" s="7">
+      <c r="L7" s="7">
         <v>100001</v>
       </c>
-      <c r="L7" s="7">
+      <c r="M7" s="7">
         <v>500</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
-        <v>51071</v>
-      </c>
-      <c r="B8" s="7">
-        <v>1</v>
+        <v>601071</v>
+      </c>
+      <c r="B8" s="3">
+        <v>601</v>
       </c>
       <c r="C8" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7">
         <v>7</v>
       </c>
       <c r="E8" s="7">
-        <v>1</v>
-      </c>
-      <c r="F8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="7">
+        <v>1</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
       <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7">
         <v>10</v>
       </c>
-      <c r="J8" s="7">
+      <c r="K8" s="7">
         <v>20</v>
       </c>
-      <c r="K8" s="7">
+      <c r="L8" s="7">
         <v>100001</v>
       </c>
-      <c r="L8" s="7">
+      <c r="M8" s="7">
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
-        <v>52111</v>
+        <v>602111</v>
       </c>
       <c r="B9" s="5">
-        <v>2</v>
+        <v>601</v>
       </c>
       <c r="C9" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" s="5">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5">
         <v>11</v>
       </c>
-      <c r="E9" s="5">
-        <v>1</v>
-      </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="5">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="H9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="5">
-        <v>0</v>
-      </c>
       <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
         <v>5</v>
       </c>
-      <c r="J9" s="5">
+      <c r="K9" s="5">
         <v>50</v>
       </c>
-      <c r="K9" s="5">
-        <v>0</v>
-      </c>
       <c r="L9" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
-        <v>52112</v>
+        <v>602112</v>
       </c>
       <c r="B10" s="5">
-        <v>2</v>
+        <v>601</v>
       </c>
       <c r="C10" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="5">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5">
         <v>11</v>
       </c>
-      <c r="E10" s="5">
-        <v>2</v>
-      </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="5">
+        <v>2</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="H10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="5">
-        <v>0</v>
-      </c>
       <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
         <v>10</v>
       </c>
-      <c r="J10" s="5">
+      <c r="K10" s="5">
         <v>50</v>
       </c>
-      <c r="K10" s="5">
-        <v>0</v>
-      </c>
       <c r="L10" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
-        <v>52113</v>
+        <v>602113</v>
       </c>
       <c r="B11" s="5">
-        <v>2</v>
+        <v>601</v>
       </c>
       <c r="C11" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5">
         <v>11</v>
       </c>
-      <c r="E11" s="5">
+      <c r="F11" s="5">
         <v>3</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="G11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="H11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="5">
-        <v>0</v>
-      </c>
       <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
         <v>15</v>
       </c>
-      <c r="J11" s="5">
+      <c r="K11" s="5">
         <v>50</v>
       </c>
-      <c r="K11" s="5">
-        <v>0</v>
-      </c>
       <c r="L11" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
-        <v>52114</v>
+        <v>602114</v>
       </c>
       <c r="B12" s="5">
-        <v>2</v>
+        <v>601</v>
       </c>
       <c r="C12" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" s="5">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5">
         <v>11</v>
       </c>
-      <c r="E12" s="5">
+      <c r="F12" s="5">
         <v>4</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="G12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="H12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="5">
-        <v>0</v>
-      </c>
       <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
         <v>20</v>
       </c>
-      <c r="J12" s="5">
+      <c r="K12" s="5">
         <v>50</v>
       </c>
-      <c r="K12" s="5">
-        <v>0</v>
-      </c>
       <c r="L12" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
-        <v>52211</v>
+        <v>602211</v>
       </c>
       <c r="B13" s="5">
-        <v>2</v>
+        <v>601</v>
       </c>
       <c r="C13" s="5">
         <v>2</v>
       </c>
       <c r="D13" s="5">
+        <v>2</v>
+      </c>
+      <c r="E13" s="5">
         <v>21</v>
       </c>
-      <c r="E13" s="5">
-        <v>1</v>
-      </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="5">
+        <v>1</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="H13" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="5">
-        <v>0</v>
-      </c>
       <c r="I13" s="5">
+        <v>0</v>
+      </c>
+      <c r="J13" s="5">
         <v>10</v>
       </c>
-      <c r="J13" s="5">
+      <c r="K13" s="5">
         <v>50</v>
       </c>
-      <c r="K13" s="5">
-        <v>0</v>
-      </c>
       <c r="L13" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
-        <v>52212</v>
+        <v>602212</v>
       </c>
       <c r="B14" s="5">
-        <v>2</v>
+        <v>601</v>
       </c>
       <c r="C14" s="5">
         <v>2</v>
       </c>
       <c r="D14" s="5">
+        <v>2</v>
+      </c>
+      <c r="E14" s="5">
         <v>21</v>
       </c>
-      <c r="E14" s="5">
-        <v>2</v>
-      </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="5">
+        <v>2</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="H14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="5">
-        <v>0</v>
-      </c>
       <c r="I14" s="5">
+        <v>0</v>
+      </c>
+      <c r="J14" s="5">
         <v>20</v>
       </c>
-      <c r="J14" s="5">
+      <c r="K14" s="5">
         <v>50</v>
       </c>
-      <c r="K14" s="5">
-        <v>0</v>
-      </c>
       <c r="L14" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M14" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
-        <v>52213</v>
+        <v>602213</v>
       </c>
       <c r="B15" s="5">
-        <v>2</v>
+        <v>601</v>
       </c>
       <c r="C15" s="5">
         <v>2</v>
       </c>
       <c r="D15" s="5">
+        <v>2</v>
+      </c>
+      <c r="E15" s="5">
         <v>21</v>
       </c>
-      <c r="E15" s="5">
+      <c r="F15" s="5">
         <v>3</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="G15" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="H15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="5">
-        <v>0</v>
-      </c>
       <c r="I15" s="5">
+        <v>0</v>
+      </c>
+      <c r="J15" s="5">
         <v>30</v>
       </c>
-      <c r="J15" s="5">
+      <c r="K15" s="5">
         <v>50</v>
       </c>
-      <c r="K15" s="5">
-        <v>0</v>
-      </c>
       <c r="L15" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
-        <v>52214</v>
+        <v>602214</v>
       </c>
       <c r="B16" s="5">
-        <v>2</v>
+        <v>601</v>
       </c>
       <c r="C16" s="5">
         <v>2</v>
       </c>
       <c r="D16" s="5">
+        <v>2</v>
+      </c>
+      <c r="E16" s="5">
         <v>21</v>
       </c>
-      <c r="E16" s="5">
+      <c r="F16" s="5">
         <v>4</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="G16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="H16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="5">
-        <v>0</v>
-      </c>
       <c r="I16" s="5">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J16" s="5">
         <v>50</v>
       </c>
       <c r="K16" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L16" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M16" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
-        <v>52311</v>
+        <v>602311</v>
       </c>
       <c r="B17" s="5">
-        <v>2</v>
+        <v>601</v>
       </c>
       <c r="C17" s="5">
+        <v>2</v>
+      </c>
+      <c r="D17" s="5">
         <v>3</v>
       </c>
-      <c r="D17" s="5">
+      <c r="E17" s="5">
         <v>31</v>
       </c>
-      <c r="E17" s="5">
-        <v>1</v>
-      </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="5">
+        <v>1</v>
+      </c>
+      <c r="G17" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="H17" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="H17" s="5">
-        <v>0</v>
-      </c>
       <c r="I17" s="5">
+        <v>0</v>
+      </c>
+      <c r="J17" s="5">
         <v>30</v>
       </c>
-      <c r="J17" s="5">
+      <c r="K17" s="5">
         <v>50</v>
       </c>
-      <c r="K17" s="5">
-        <v>0</v>
-      </c>
       <c r="L17" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M17" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
-        <v>52312</v>
+        <v>602312</v>
       </c>
       <c r="B18" s="5">
-        <v>2</v>
+        <v>601</v>
       </c>
       <c r="C18" s="5">
+        <v>2</v>
+      </c>
+      <c r="D18" s="5">
         <v>3</v>
       </c>
-      <c r="D18" s="5">
+      <c r="E18" s="5">
         <v>31</v>
       </c>
-      <c r="E18" s="5">
-        <v>2</v>
-      </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="5">
+        <v>2</v>
+      </c>
+      <c r="G18" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="H18" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="H18" s="5">
-        <v>0</v>
-      </c>
       <c r="I18" s="5">
+        <v>0</v>
+      </c>
+      <c r="J18" s="5">
         <v>60</v>
       </c>
-      <c r="J18" s="5">
+      <c r="K18" s="5">
         <v>50</v>
       </c>
-      <c r="K18" s="5">
-        <v>0</v>
-      </c>
       <c r="L18" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M18" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
-        <v>52313</v>
+        <v>602313</v>
       </c>
       <c r="B19" s="5">
-        <v>2</v>
+        <v>601</v>
       </c>
       <c r="C19" s="5">
+        <v>2</v>
+      </c>
+      <c r="D19" s="5">
         <v>3</v>
       </c>
-      <c r="D19" s="5">
+      <c r="E19" s="5">
         <v>31</v>
       </c>
-      <c r="E19" s="5">
+      <c r="F19" s="5">
         <v>3</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="G19" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="H19" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="H19" s="5">
-        <v>0</v>
-      </c>
       <c r="I19" s="5">
+        <v>0</v>
+      </c>
+      <c r="J19" s="5">
         <v>90</v>
       </c>
-      <c r="J19" s="5">
+      <c r="K19" s="5">
         <v>50</v>
       </c>
-      <c r="K19" s="5">
-        <v>0</v>
-      </c>
       <c r="L19" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M19" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
-        <v>52411</v>
+        <v>602411</v>
       </c>
       <c r="B20" s="5">
-        <v>2</v>
+        <v>601</v>
       </c>
       <c r="C20" s="5">
+        <v>2</v>
+      </c>
+      <c r="D20" s="5">
         <v>4</v>
       </c>
-      <c r="D20" s="5">
+      <c r="E20" s="5">
         <v>41</v>
       </c>
-      <c r="E20" s="5">
-        <v>1</v>
-      </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="5">
+        <v>1</v>
+      </c>
+      <c r="G20" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="H20" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H20" s="5">
-        <v>0</v>
-      </c>
       <c r="I20" s="5">
+        <v>0</v>
+      </c>
+      <c r="J20" s="5">
         <v>10</v>
       </c>
-      <c r="J20" s="5">
+      <c r="K20" s="5">
         <v>50</v>
       </c>
-      <c r="K20" s="5">
-        <v>0</v>
-      </c>
       <c r="L20" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M20" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
-        <v>52412</v>
+        <v>602412</v>
       </c>
       <c r="B21" s="5">
-        <v>2</v>
+        <v>601</v>
       </c>
       <c r="C21" s="5">
+        <v>2</v>
+      </c>
+      <c r="D21" s="5">
         <v>4</v>
       </c>
-      <c r="D21" s="5">
+      <c r="E21" s="5">
         <v>41</v>
       </c>
-      <c r="E21" s="5">
-        <v>2</v>
-      </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="5">
+        <v>2</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="H21" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H21" s="5">
-        <v>0</v>
-      </c>
       <c r="I21" s="5">
+        <v>0</v>
+      </c>
+      <c r="J21" s="5">
         <v>20</v>
       </c>
-      <c r="J21" s="5">
+      <c r="K21" s="5">
         <v>50</v>
       </c>
-      <c r="K21" s="5">
-        <v>0</v>
-      </c>
       <c r="L21" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M21" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
-        <v>52413</v>
+        <v>602413</v>
       </c>
       <c r="B22" s="5">
-        <v>2</v>
+        <v>601</v>
       </c>
       <c r="C22" s="5">
+        <v>2</v>
+      </c>
+      <c r="D22" s="5">
         <v>4</v>
       </c>
-      <c r="D22" s="5">
+      <c r="E22" s="5">
         <v>41</v>
       </c>
-      <c r="E22" s="5">
+      <c r="F22" s="5">
         <v>3</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="G22" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="H22" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H22" s="5">
-        <v>0</v>
-      </c>
       <c r="I22" s="5">
+        <v>0</v>
+      </c>
+      <c r="J22" s="5">
         <v>30</v>
       </c>
-      <c r="J22" s="5">
+      <c r="K22" s="5">
         <v>50</v>
       </c>
-      <c r="K22" s="5">
-        <v>0</v>
-      </c>
       <c r="L22" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M22" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
-        <v>52414</v>
+        <v>602414</v>
       </c>
       <c r="B23" s="5">
-        <v>2</v>
+        <v>601</v>
       </c>
       <c r="C23" s="5">
+        <v>2</v>
+      </c>
+      <c r="D23" s="5">
         <v>4</v>
       </c>
-      <c r="D23" s="5">
+      <c r="E23" s="5">
         <v>41</v>
       </c>
-      <c r="E23" s="5">
+      <c r="F23" s="5">
         <v>4</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="G23" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="H23" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H23" s="5">
-        <v>0</v>
-      </c>
       <c r="I23" s="5">
+        <v>0</v>
+      </c>
+      <c r="J23" s="5">
         <v>40</v>
       </c>
-      <c r="J23" s="5">
+      <c r="K23" s="5">
         <v>50</v>
       </c>
-      <c r="K23" s="5">
-        <v>0</v>
-      </c>
       <c r="L23" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M23" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
-        <v>52415</v>
+        <v>602415</v>
       </c>
       <c r="B24" s="5">
-        <v>2</v>
+        <v>601</v>
       </c>
       <c r="C24" s="5">
+        <v>2</v>
+      </c>
+      <c r="D24" s="5">
         <v>4</v>
       </c>
-      <c r="D24" s="5">
+      <c r="E24" s="5">
         <v>41</v>
       </c>
-      <c r="E24" s="5">
+      <c r="F24" s="5">
         <v>5</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="G24" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="H24" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H24" s="5">
-        <v>0</v>
-      </c>
       <c r="I24" s="5">
+        <v>0</v>
+      </c>
+      <c r="J24" s="5">
         <v>50</v>
       </c>
-      <c r="J24" s="5">
+      <c r="K24" s="5">
         <v>150</v>
       </c>
-      <c r="K24" s="5">
-        <v>0</v>
-      </c>
       <c r="L24" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M24" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
-        <v>52511</v>
+        <v>602511</v>
       </c>
       <c r="B25" s="5">
-        <v>2</v>
+        <v>601</v>
       </c>
       <c r="C25" s="5">
+        <v>2</v>
+      </c>
+      <c r="D25" s="5">
         <v>5</v>
       </c>
-      <c r="D25" s="5">
+      <c r="E25" s="5">
         <v>51</v>
       </c>
-      <c r="E25" s="5">
-        <v>1</v>
-      </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="5">
+        <v>1</v>
+      </c>
+      <c r="G25" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="H25" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H25" s="5">
-        <v>0</v>
-      </c>
       <c r="I25" s="5">
+        <v>0</v>
+      </c>
+      <c r="J25" s="5">
         <v>10</v>
       </c>
-      <c r="J25" s="5">
+      <c r="K25" s="5">
         <v>50</v>
       </c>
-      <c r="K25" s="5">
-        <v>0</v>
-      </c>
       <c r="L25" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M25" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
-        <v>52512</v>
+        <v>602512</v>
       </c>
       <c r="B26" s="5">
-        <v>2</v>
+        <v>601</v>
       </c>
       <c r="C26" s="5">
+        <v>2</v>
+      </c>
+      <c r="D26" s="5">
         <v>5</v>
       </c>
-      <c r="D26" s="5">
+      <c r="E26" s="5">
         <v>51</v>
       </c>
-      <c r="E26" s="5">
-        <v>2</v>
-      </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="5">
+        <v>2</v>
+      </c>
+      <c r="G26" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="H26" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H26" s="5">
-        <v>0</v>
-      </c>
       <c r="I26" s="5">
+        <v>0</v>
+      </c>
+      <c r="J26" s="5">
         <v>20</v>
       </c>
-      <c r="J26" s="5">
+      <c r="K26" s="5">
         <v>50</v>
       </c>
-      <c r="K26" s="5">
-        <v>0</v>
-      </c>
       <c r="L26" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M26" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
-        <v>52513</v>
+        <v>602513</v>
       </c>
       <c r="B27" s="5">
-        <v>2</v>
+        <v>601</v>
       </c>
       <c r="C27" s="5">
+        <v>2</v>
+      </c>
+      <c r="D27" s="5">
         <v>5</v>
       </c>
-      <c r="D27" s="5">
+      <c r="E27" s="5">
         <v>51</v>
       </c>
-      <c r="E27" s="5">
+      <c r="F27" s="5">
         <v>3</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="G27" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="H27" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H27" s="5">
-        <v>0</v>
-      </c>
       <c r="I27" s="5">
+        <v>0</v>
+      </c>
+      <c r="J27" s="5">
         <v>30</v>
       </c>
-      <c r="J27" s="5">
+      <c r="K27" s="5">
         <v>50</v>
       </c>
-      <c r="K27" s="5">
-        <v>0</v>
-      </c>
       <c r="L27" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M27" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
-        <v>52611</v>
+        <v>602611</v>
       </c>
       <c r="B28" s="5">
-        <v>2</v>
+        <v>601</v>
       </c>
       <c r="C28" s="5">
+        <v>2</v>
+      </c>
+      <c r="D28" s="5">
         <v>6</v>
       </c>
-      <c r="D28" s="5">
+      <c r="E28" s="5">
         <v>61</v>
       </c>
-      <c r="E28" s="5">
-        <v>1</v>
-      </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="5">
+        <v>1</v>
+      </c>
+      <c r="G28" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="H28" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="H28" s="5">
-        <v>0</v>
-      </c>
       <c r="I28" s="5">
+        <v>0</v>
+      </c>
+      <c r="J28" s="5">
         <v>30</v>
       </c>
-      <c r="J28" s="5">
-        <v>100</v>
-      </c>
       <c r="K28" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L28" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M28" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
-        <v>52612</v>
+        <v>602612</v>
       </c>
       <c r="B29" s="5">
-        <v>2</v>
+        <v>601</v>
       </c>
       <c r="C29" s="5">
+        <v>2</v>
+      </c>
+      <c r="D29" s="5">
         <v>6</v>
       </c>
-      <c r="D29" s="5">
+      <c r="E29" s="5">
         <v>61</v>
       </c>
-      <c r="E29" s="5">
-        <v>2</v>
-      </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="5">
+        <v>2</v>
+      </c>
+      <c r="G29" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="H29" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="H29" s="5">
-        <v>0</v>
-      </c>
       <c r="I29" s="5">
+        <v>0</v>
+      </c>
+      <c r="J29" s="5">
         <v>60</v>
       </c>
-      <c r="J29" s="5">
-        <v>100</v>
-      </c>
       <c r="K29" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L29" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M29" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
-        <v>52613</v>
+        <v>602613</v>
       </c>
       <c r="B30" s="5">
-        <v>2</v>
+        <v>601</v>
       </c>
       <c r="C30" s="5">
+        <v>2</v>
+      </c>
+      <c r="D30" s="5">
         <v>6</v>
       </c>
-      <c r="D30" s="5">
+      <c r="E30" s="5">
         <v>61</v>
       </c>
-      <c r="E30" s="5">
+      <c r="F30" s="5">
         <v>3</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="G30" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="H30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="H30" s="5">
-        <v>0</v>
-      </c>
       <c r="I30" s="5">
+        <v>0</v>
+      </c>
+      <c r="J30" s="5">
         <v>90</v>
       </c>
-      <c r="J30" s="5">
-        <v>100</v>
-      </c>
       <c r="K30" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L30" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M30" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
-        <v>52614</v>
+        <v>602614</v>
       </c>
       <c r="B31" s="5">
-        <v>2</v>
+        <v>601</v>
       </c>
       <c r="C31" s="5">
+        <v>2</v>
+      </c>
+      <c r="D31" s="5">
         <v>6</v>
       </c>
-      <c r="D31" s="5">
+      <c r="E31" s="5">
         <v>61</v>
       </c>
-      <c r="E31" s="5">
+      <c r="F31" s="5">
         <v>4</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="G31" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="H31" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="H31" s="5">
-        <v>0</v>
-      </c>
       <c r="I31" s="5">
+        <v>0</v>
+      </c>
+      <c r="J31" s="5">
         <v>120</v>
       </c>
-      <c r="J31" s="5">
-        <v>100</v>
-      </c>
       <c r="K31" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L31" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M31" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
-        <v>52615</v>
+        <v>602615</v>
       </c>
       <c r="B32" s="5">
-        <v>2</v>
+        <v>601</v>
       </c>
       <c r="C32" s="5">
+        <v>2</v>
+      </c>
+      <c r="D32" s="5">
         <v>6</v>
       </c>
-      <c r="D32" s="5">
+      <c r="E32" s="5">
         <v>61</v>
       </c>
-      <c r="E32" s="5">
+      <c r="F32" s="5">
         <v>5</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="G32" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="H32" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="H32" s="5">
-        <v>0</v>
-      </c>
       <c r="I32" s="5">
+        <v>0</v>
+      </c>
+      <c r="J32" s="5">
         <v>150</v>
       </c>
-      <c r="J32" s="5">
-        <v>100</v>
-      </c>
       <c r="K32" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L32" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M32" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
-        <v>52711</v>
+        <v>602711</v>
       </c>
       <c r="B33" s="5">
-        <v>2</v>
+        <v>601</v>
       </c>
       <c r="C33" s="5">
+        <v>2</v>
+      </c>
+      <c r="D33" s="5">
         <v>7</v>
       </c>
-      <c r="D33" s="5">
+      <c r="E33" s="5">
         <v>71</v>
       </c>
-      <c r="E33" s="5">
-        <v>1</v>
-      </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="5">
+        <v>1</v>
+      </c>
+      <c r="G33" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="H33" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H33" s="5">
-        <v>0</v>
-      </c>
       <c r="I33" s="5">
+        <v>0</v>
+      </c>
+      <c r="J33" s="5">
         <v>5</v>
       </c>
-      <c r="J33" s="5">
-        <v>100</v>
-      </c>
       <c r="K33" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L33" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M33" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
-        <v>52712</v>
+        <v>602712</v>
       </c>
       <c r="B34" s="5">
-        <v>2</v>
+        <v>601</v>
       </c>
       <c r="C34" s="5">
+        <v>2</v>
+      </c>
+      <c r="D34" s="5">
         <v>7</v>
       </c>
-      <c r="D34" s="5">
+      <c r="E34" s="5">
         <v>71</v>
       </c>
-      <c r="E34" s="5">
-        <v>2</v>
-      </c>
-      <c r="F34" s="5" t="s">
+      <c r="F34" s="5">
+        <v>2</v>
+      </c>
+      <c r="G34" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="H34" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H34" s="5">
-        <v>0</v>
-      </c>
       <c r="I34" s="5">
+        <v>0</v>
+      </c>
+      <c r="J34" s="5">
         <v>10</v>
       </c>
-      <c r="J34" s="5">
-        <v>100</v>
-      </c>
       <c r="K34" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L34" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M34" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
-        <v>52713</v>
+        <v>602713</v>
       </c>
       <c r="B35" s="5">
-        <v>2</v>
+        <v>601</v>
       </c>
       <c r="C35" s="5">
+        <v>2</v>
+      </c>
+      <c r="D35" s="5">
         <v>7</v>
       </c>
-      <c r="D35" s="5">
+      <c r="E35" s="5">
         <v>71</v>
       </c>
-      <c r="E35" s="5">
+      <c r="F35" s="5">
         <v>3</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="G35" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="H35" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H35" s="5">
-        <v>0</v>
-      </c>
       <c r="I35" s="5">
+        <v>0</v>
+      </c>
+      <c r="J35" s="5">
         <v>20</v>
       </c>
-      <c r="J35" s="5">
+      <c r="K35" s="5">
         <v>200</v>
       </c>
-      <c r="K35" s="5">
-        <v>0</v>
-      </c>
       <c r="L35" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M35" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
-        <v>52811</v>
+        <v>602811</v>
       </c>
       <c r="B36" s="5">
-        <v>2</v>
+        <v>601</v>
       </c>
       <c r="C36" s="5">
+        <v>2</v>
+      </c>
+      <c r="D36" s="5">
         <v>8</v>
       </c>
-      <c r="D36" s="5">
+      <c r="E36" s="5">
         <v>81</v>
       </c>
-      <c r="E36" s="5">
-        <v>1</v>
-      </c>
-      <c r="F36" s="5" t="s">
+      <c r="F36" s="5">
+        <v>1</v>
+      </c>
+      <c r="G36" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="H36" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="H36" s="5">
+      <c r="I36" s="5">
         <v>3</v>
       </c>
-      <c r="I36" s="5">
-        <v>1</v>
-      </c>
       <c r="J36" s="5">
+        <v>1</v>
+      </c>
+      <c r="K36" s="5">
         <v>150</v>
       </c>
-      <c r="K36" s="5">
-        <v>0</v>
-      </c>
       <c r="L36" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M36" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
-        <v>52821</v>
+        <v>602821</v>
       </c>
       <c r="B37" s="5">
-        <v>2</v>
+        <v>601</v>
       </c>
       <c r="C37" s="5">
+        <v>2</v>
+      </c>
+      <c r="D37" s="5">
         <v>8</v>
       </c>
-      <c r="D37" s="5">
+      <c r="E37" s="5">
         <v>82</v>
       </c>
-      <c r="E37" s="5">
-        <v>1</v>
-      </c>
-      <c r="F37" s="5" t="s">
+      <c r="F37" s="5">
+        <v>1</v>
+      </c>
+      <c r="G37" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G37" s="5" t="s">
+      <c r="H37" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="H37" s="5">
-        <v>2</v>
-      </c>
       <c r="I37" s="5">
+        <v>2</v>
+      </c>
+      <c r="J37" s="5">
         <v>10</v>
       </c>
-      <c r="J37" s="5">
+      <c r="K37" s="5">
         <v>150</v>
       </c>
-      <c r="K37" s="5">
-        <v>0</v>
-      </c>
       <c r="L37" s="5">
+        <v>0</v>
+      </c>
+      <c r="M37" s="5">
         <v>0</v>
       </c>
     </row>

--- a/Client/Assets/11. GameData/Pass.xlsx
+++ b/Client/Assets/11. GameData/Pass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Download2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92E73C3-215C-42C1-B8C9-47FE7107CFD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1918BD-557D-4738-9CA5-4CBE9B45CE73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27990" windowHeight="16440" tabRatio="535" activeTab="3" xr2:uid="{E3B10073-6739-413D-9047-29D24A9ED330}"/>
+    <workbookView xWindow="5535" yWindow="2700" windowWidth="15465" windowHeight="13110" tabRatio="535" firstSheet="1" activeTab="2" xr2:uid="{E3B10073-6739-413D-9047-29D24A9ED330}"/>
   </bookViews>
   <sheets>
     <sheet name="Pass_Info" sheetId="4" r:id="rId1"/>
@@ -39,6 +39,33 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={02285BED-D805-4C5D-B344-7A602816A460}</author>
+    <author>tc={983CDA3A-21D9-4FC0-A46E-71C8B9484707}</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{02285BED-D805-4C5D-B344-7A602816A460}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    일일미션 획득 경험치 한도</t>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{983CDA3A-21D9-4FC0-A46E-71C8B9484707}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    반복보상 시작되는 패스 레벨</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={A63D4460-39A8-44C3-8C3B-C0AB19CB2BC3}</author>
@@ -85,7 +112,7 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={06EDA498-2F71-4579-9D6B-A579ACC4823E}</author>
@@ -176,7 +203,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="85">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -490,6 +517,14 @@
   </si>
   <si>
     <t>Pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level_Repeated_Reward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Limit_Exp_Daily_Mission</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1001,6 +1036,17 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C1" dT="2025-02-11T02:42:07.46" personId="{36C43E8F-E806-4672-A3DE-BA0E07A7B13D}" id="{02285BED-D805-4C5D-B344-7A602816A460}">
+    <text>일일미션 획득 경험치 한도</text>
+  </threadedComment>
+  <threadedComment ref="D1" dT="2025-02-11T02:42:34.35" personId="{36C43E8F-E806-4672-A3DE-BA0E07A7B13D}" id="{983CDA3A-21D9-4FC0-A46E-71C8B9484707}">
+    <text>반복보상 시작되는 패스 레벨</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="C1" dT="2024-11-14T14:17:45.66" personId="{36C43E8F-E806-4672-A3DE-BA0E07A7B13D}" id="{A63D4460-39A8-44C3-8C3B-C0AB19CB2BC3}">
     <text>10레벨 초과 시, 레벨 10 유지&amp; 보상 지급</text>
   </threadedComment>
@@ -1018,7 +1064,7 @@
 </ThreadedComments>
 </file>
 
-<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="A1" dT="2025-02-10T02:34:23.59" personId="{36C43E8F-E806-4672-A3DE-BA0E07A7B13D}" id="{06EDA498-2F71-4579-9D6B-A579ACC4823E}">
     <text xml:space="preserve">600000 = 미션 전용
@@ -1208,50 +1254,65 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC616978-B69C-4F7D-8301-6F88E773EBCB}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC616978-B69C-4F7D-8301-6F88E773EBCB}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>601</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
+        <v>100</v>
+      </c>
+      <c r="D2" s="3">
+        <v>21</v>
+      </c>
+      <c r="E2" s="4">
         <v>45573</v>
       </c>
-      <c r="D2" s="4">
+      <c r="F2" s="4">
         <v>72686</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1259,8 +1320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A74E4F3-3BB8-4CF3-AC0A-3F86C309575D}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2274,7 +2335,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4561621-BAF4-4FB5-8F15-B71B1A49C200}">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>

--- a/Client/Assets/11. GameData/Pass.xlsx
+++ b/Client/Assets/11. GameData/Pass.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Download2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JMTJ\new\FestivalTownProject\Client\Assets\11. GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1918BD-557D-4738-9CA5-4CBE9B45CE73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17489ACB-5E83-4400-9C4A-9DFAD2B20B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5535" yWindow="2700" windowWidth="15465" windowHeight="13110" tabRatio="535" firstSheet="1" activeTab="2" xr2:uid="{E3B10073-6739-413D-9047-29D24A9ED330}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="535" firstSheet="1" activeTab="3" xr2:uid="{E3B10073-6739-413D-9047-29D24A9ED330}"/>
   </bookViews>
   <sheets>
     <sheet name="Pass_Info" sheetId="4" r:id="rId1"/>
@@ -532,7 +532,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -564,12 +564,6 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1258,7 +1252,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1266,7 +1260,7 @@
     <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -1303,10 +1297,10 @@
         <v>21</v>
       </c>
       <c r="E2" s="4">
-        <v>45573</v>
+        <v>45348</v>
       </c>
       <c r="F2" s="4">
-        <v>72686</v>
+        <v>45743</v>
       </c>
     </row>
   </sheetData>
@@ -1320,7 +1314,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A74E4F3-3BB8-4CF3-AC0A-3F86C309575D}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
@@ -2335,7 +2329,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4561621-BAF4-4FB5-8F15-B71B1A49C200}">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>

--- a/Client/Assets/11. GameData/Pass.xlsx
+++ b/Client/Assets/11. GameData/Pass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JMTJ\new\FestivalTownProject\Client\Assets\11. GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17489ACB-5E83-4400-9C4A-9DFAD2B20B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B2773B6-1462-4461-97EC-2E140291B125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="535" firstSheet="1" activeTab="3" xr2:uid="{E3B10073-6739-413D-9047-29D24A9ED330}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="535" firstSheet="1" activeTab="2" xr2:uid="{E3B10073-6739-413D-9047-29D24A9ED330}"/>
   </bookViews>
   <sheets>
     <sheet name="Pass_Info" sheetId="4" r:id="rId1"/>
@@ -1314,8 +1314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A74E4F3-3BB8-4CF3-AC0A-3F86C309575D}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1372,7 +1372,7 @@
         <v>100001</v>
       </c>
       <c r="G2" s="8">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1852,10 +1852,10 @@
         <v>2</v>
       </c>
       <c r="F23" s="6">
-        <v>100002</v>
+        <v>201025</v>
       </c>
       <c r="G23" s="6">
-        <v>50</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -2329,7 +2329,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4561621-BAF4-4FB5-8F15-B71B1A49C200}">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>

--- a/Client/Assets/11. GameData/Pass.xlsx
+++ b/Client/Assets/11. GameData/Pass.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JMTJ\new\FestivalTownProject\Client\Assets\11. GameData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lcmbb\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17489ACB-5E83-4400-9C4A-9DFAD2B20B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D6AD29-A522-46E3-8707-8207F2A1C194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="535" firstSheet="1" activeTab="3" xr2:uid="{E3B10073-6739-413D-9047-29D24A9ED330}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="535" firstSheet="1" activeTab="1" xr2:uid="{E3B10073-6739-413D-9047-29D24A9ED330}"/>
   </bookViews>
   <sheets>
     <sheet name="Pass_Info" sheetId="4" r:id="rId1"/>
@@ -1110,16 +1110,16 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.25" customWidth="1"/>
+    <col min="1" max="1" width="3.19921875" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="54.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="12" t="s">
         <v>71</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -1216,25 +1216,25 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
     </row>
-    <row r="11" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
     </row>
-    <row r="12" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="13" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
     </row>
@@ -1251,19 +1251,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC616978-B69C-4F7D-8301-6F88E773EBCB}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <v>601</v>
       </c>
@@ -1312,24 +1312,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A74E4F3-3BB8-4CF3-AC0A-3F86C309575D}">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.75" customWidth="1"/>
-    <col min="2" max="2" width="10.75" customWidth="1"/>
-    <col min="4" max="4" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.69921875" customWidth="1"/>
+    <col min="2" max="2" width="10.69921875" customWidth="1"/>
+    <col min="4" max="4" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.09765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.19921875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.75" customWidth="1"/>
+    <col min="8" max="8" width="12.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <v>60101</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>60102</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>60103</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>60104</v>
       </c>
@@ -1444,7 +1444,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>60105</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>60106</v>
       </c>
@@ -1490,7 +1490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>60107</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>60108</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>60109</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>60110</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>60111</v>
       </c>
@@ -1605,7 +1605,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>60112</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <v>60113</v>
       </c>
@@ -1651,7 +1651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <v>60114</v>
       </c>
@@ -1674,7 +1674,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <v>60115</v>
       </c>
@@ -1697,7 +1697,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <v>60116</v>
       </c>
@@ -1720,7 +1720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <v>60117</v>
       </c>
@@ -1743,7 +1743,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <v>60118</v>
       </c>
@@ -1766,7 +1766,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <v>60119</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <v>60120</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <v>60121</v>
       </c>
@@ -1835,107 +1835,107 @@
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="5">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A23" s="3">
+        <v>60122</v>
+      </c>
+      <c r="B23" s="3">
+        <v>601</v>
+      </c>
+      <c r="C23" s="3">
+        <v>22</v>
+      </c>
+      <c r="D23" s="7">
+        <v>100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1</v>
+      </c>
+      <c r="F23" s="8">
+        <v>100001</v>
+      </c>
+      <c r="G23" s="8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A24" s="3">
+        <v>60123</v>
+      </c>
+      <c r="B24" s="3">
+        <v>601</v>
+      </c>
+      <c r="C24" s="3">
+        <v>23</v>
+      </c>
+      <c r="D24" s="7">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+      <c r="F24" s="8">
+        <v>100001</v>
+      </c>
+      <c r="G24" s="8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A25" s="3">
+        <v>60124</v>
+      </c>
+      <c r="B25" s="3">
+        <v>601</v>
+      </c>
+      <c r="C25" s="3">
+        <v>24</v>
+      </c>
+      <c r="D25" s="7">
+        <v>100</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1</v>
+      </c>
+      <c r="F25" s="8">
+        <v>100001</v>
+      </c>
+      <c r="G25" s="8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A26" s="3">
+        <v>60125</v>
+      </c>
+      <c r="B26" s="3">
+        <v>601</v>
+      </c>
+      <c r="C26" s="3">
+        <v>25</v>
+      </c>
+      <c r="D26" s="7">
+        <v>100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1</v>
+      </c>
+      <c r="F26" s="8">
+        <v>100001</v>
+      </c>
+      <c r="G26" s="8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A27" s="5">
         <v>60201</v>
       </c>
-      <c r="B23" s="5">
-        <v>601</v>
-      </c>
-      <c r="C23" s="5">
-        <v>1</v>
-      </c>
-      <c r="D23" s="5">
-        <v>100</v>
-      </c>
-      <c r="E23" s="5">
-        <v>2</v>
-      </c>
-      <c r="F23" s="6">
-        <v>100002</v>
-      </c>
-      <c r="G23" s="6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="5">
-        <v>60202</v>
-      </c>
-      <c r="B24" s="5">
-        <v>601</v>
-      </c>
-      <c r="C24" s="5">
-        <v>2</v>
-      </c>
-      <c r="D24" s="5">
-        <v>100</v>
-      </c>
-      <c r="E24" s="5">
-        <v>2</v>
-      </c>
-      <c r="F24" s="6">
-        <v>100002</v>
-      </c>
-      <c r="G24" s="6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="5">
-        <v>60203</v>
-      </c>
-      <c r="B25" s="5">
-        <v>601</v>
-      </c>
-      <c r="C25" s="5">
-        <v>3</v>
-      </c>
-      <c r="D25" s="5">
-        <v>100</v>
-      </c>
-      <c r="E25" s="5">
-        <v>2</v>
-      </c>
-      <c r="F25" s="6">
-        <v>341020</v>
-      </c>
-      <c r="G25" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="5">
-        <v>60204</v>
-      </c>
-      <c r="B26" s="5">
-        <v>601</v>
-      </c>
-      <c r="C26" s="5">
-        <v>4</v>
-      </c>
-      <c r="D26" s="5">
-        <v>100</v>
-      </c>
-      <c r="E26" s="5">
-        <v>2</v>
-      </c>
-      <c r="F26" s="6">
-        <v>100002</v>
-      </c>
-      <c r="G26" s="6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="5">
-        <v>60205</v>
-      </c>
       <c r="B27" s="5">
         <v>601</v>
       </c>
       <c r="C27" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D27" s="5">
         <v>100</v>
@@ -1950,15 +1950,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="5">
-        <v>60206</v>
+        <v>60202</v>
       </c>
       <c r="B28" s="5">
         <v>601</v>
       </c>
       <c r="C28" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D28" s="5">
         <v>100</v>
@@ -1967,21 +1967,21 @@
         <v>2</v>
       </c>
       <c r="F28" s="6">
-        <v>341002</v>
+        <v>100002</v>
       </c>
       <c r="G28" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="5">
-        <v>60207</v>
+        <v>60203</v>
       </c>
       <c r="B29" s="5">
         <v>601</v>
       </c>
       <c r="C29" s="5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D29" s="5">
         <v>100</v>
@@ -1990,21 +1990,21 @@
         <v>2</v>
       </c>
       <c r="F29" s="6">
-        <v>100002</v>
+        <v>341020</v>
       </c>
       <c r="G29" s="6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="5">
-        <v>60208</v>
+        <v>60204</v>
       </c>
       <c r="B30" s="5">
         <v>601</v>
       </c>
       <c r="C30" s="5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D30" s="5">
         <v>100</v>
@@ -2019,15 +2019,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="5">
-        <v>60209</v>
+        <v>60205</v>
       </c>
       <c r="B31" s="5">
         <v>601</v>
       </c>
       <c r="C31" s="5">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D31" s="5">
         <v>100</v>
@@ -2036,21 +2036,21 @@
         <v>2</v>
       </c>
       <c r="F31" s="6">
-        <v>332001</v>
+        <v>100002</v>
       </c>
       <c r="G31" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="5">
-        <v>60210</v>
+        <v>60206</v>
       </c>
       <c r="B32" s="5">
         <v>601</v>
       </c>
       <c r="C32" s="5">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D32" s="5">
         <v>100</v>
@@ -2059,21 +2059,21 @@
         <v>2</v>
       </c>
       <c r="F32" s="6">
-        <v>201020</v>
+        <v>341002</v>
       </c>
       <c r="G32" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="5">
-        <v>60211</v>
+        <v>60207</v>
       </c>
       <c r="B33" s="5">
         <v>601</v>
       </c>
       <c r="C33" s="5">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D33" s="5">
         <v>100</v>
@@ -2088,15 +2088,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" s="5">
-        <v>60212</v>
+        <v>60208</v>
       </c>
       <c r="B34" s="5">
         <v>601</v>
       </c>
       <c r="C34" s="5">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D34" s="5">
         <v>100</v>
@@ -2111,15 +2111,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="5">
-        <v>60213</v>
+        <v>60209</v>
       </c>
       <c r="B35" s="5">
         <v>601</v>
       </c>
       <c r="C35" s="5">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D35" s="5">
         <v>100</v>
@@ -2128,21 +2128,21 @@
         <v>2</v>
       </c>
       <c r="F35" s="6">
-        <v>201014</v>
+        <v>332001</v>
       </c>
       <c r="G35" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="5">
-        <v>60214</v>
+        <v>60210</v>
       </c>
       <c r="B36" s="5">
         <v>601</v>
       </c>
       <c r="C36" s="5">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D36" s="5">
         <v>100</v>
@@ -2151,21 +2151,21 @@
         <v>2</v>
       </c>
       <c r="F36" s="6">
-        <v>100002</v>
+        <v>201020</v>
       </c>
       <c r="G36" s="6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" s="5">
-        <v>60215</v>
+        <v>60211</v>
       </c>
       <c r="B37" s="5">
         <v>601</v>
       </c>
       <c r="C37" s="5">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D37" s="5">
         <v>100</v>
@@ -2180,15 +2180,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38" s="5">
-        <v>60216</v>
+        <v>60212</v>
       </c>
       <c r="B38" s="5">
         <v>601</v>
       </c>
       <c r="C38" s="5">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D38" s="5">
         <v>100</v>
@@ -2197,21 +2197,21 @@
         <v>2</v>
       </c>
       <c r="F38" s="6">
-        <v>201015</v>
+        <v>100002</v>
       </c>
       <c r="G38" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39" s="5">
-        <v>60217</v>
+        <v>60213</v>
       </c>
       <c r="B39" s="5">
         <v>601</v>
       </c>
       <c r="C39" s="5">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D39" s="5">
         <v>100</v>
@@ -2220,21 +2220,21 @@
         <v>2</v>
       </c>
       <c r="F39" s="6">
-        <v>100002</v>
+        <v>201014</v>
       </c>
       <c r="G39" s="6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40" s="5">
-        <v>60218</v>
+        <v>60214</v>
       </c>
       <c r="B40" s="5">
         <v>601</v>
       </c>
       <c r="C40" s="5">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D40" s="5">
         <v>100</v>
@@ -2249,15 +2249,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41" s="5">
-        <v>60219</v>
+        <v>60215</v>
       </c>
       <c r="B41" s="5">
         <v>601</v>
       </c>
       <c r="C41" s="5">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D41" s="5">
         <v>100</v>
@@ -2266,21 +2266,21 @@
         <v>2</v>
       </c>
       <c r="F41" s="6">
-        <v>201022</v>
+        <v>100002</v>
       </c>
       <c r="G41" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42" s="5">
-        <v>60220</v>
+        <v>60216</v>
       </c>
       <c r="B42" s="5">
         <v>601</v>
       </c>
       <c r="C42" s="5">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D42" s="5">
         <v>100</v>
@@ -2289,21 +2289,21 @@
         <v>2</v>
       </c>
       <c r="F42" s="6">
-        <v>201023</v>
+        <v>201015</v>
       </c>
       <c r="G42" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43" s="5">
-        <v>60221</v>
+        <v>60217</v>
       </c>
       <c r="B43" s="5">
         <v>601</v>
       </c>
       <c r="C43" s="5">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D43" s="5">
         <v>100</v>
@@ -2315,6 +2315,190 @@
         <v>100002</v>
       </c>
       <c r="G43" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A44" s="5">
+        <v>60218</v>
+      </c>
+      <c r="B44" s="5">
+        <v>601</v>
+      </c>
+      <c r="C44" s="5">
+        <v>18</v>
+      </c>
+      <c r="D44" s="5">
+        <v>100</v>
+      </c>
+      <c r="E44" s="5">
+        <v>2</v>
+      </c>
+      <c r="F44" s="6">
+        <v>100002</v>
+      </c>
+      <c r="G44" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A45" s="5">
+        <v>60219</v>
+      </c>
+      <c r="B45" s="5">
+        <v>601</v>
+      </c>
+      <c r="C45" s="5">
+        <v>19</v>
+      </c>
+      <c r="D45" s="5">
+        <v>100</v>
+      </c>
+      <c r="E45" s="5">
+        <v>2</v>
+      </c>
+      <c r="F45" s="6">
+        <v>201022</v>
+      </c>
+      <c r="G45" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A46" s="5">
+        <v>60220</v>
+      </c>
+      <c r="B46" s="5">
+        <v>601</v>
+      </c>
+      <c r="C46" s="5">
+        <v>20</v>
+      </c>
+      <c r="D46" s="5">
+        <v>100</v>
+      </c>
+      <c r="E46" s="5">
+        <v>2</v>
+      </c>
+      <c r="F46" s="6">
+        <v>201023</v>
+      </c>
+      <c r="G46" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A47" s="5">
+        <v>60221</v>
+      </c>
+      <c r="B47" s="5">
+        <v>601</v>
+      </c>
+      <c r="C47" s="5">
+        <v>21</v>
+      </c>
+      <c r="D47" s="5">
+        <v>100</v>
+      </c>
+      <c r="E47" s="5">
+        <v>2</v>
+      </c>
+      <c r="F47" s="6">
+        <v>100002</v>
+      </c>
+      <c r="G47" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A48" s="5">
+        <v>60222</v>
+      </c>
+      <c r="B48" s="5">
+        <v>601</v>
+      </c>
+      <c r="C48" s="5">
+        <v>22</v>
+      </c>
+      <c r="D48" s="5">
+        <v>100</v>
+      </c>
+      <c r="E48" s="5">
+        <v>2</v>
+      </c>
+      <c r="F48" s="6">
+        <v>100002</v>
+      </c>
+      <c r="G48" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A49" s="5">
+        <v>60223</v>
+      </c>
+      <c r="B49" s="5">
+        <v>601</v>
+      </c>
+      <c r="C49" s="5">
+        <v>23</v>
+      </c>
+      <c r="D49" s="5">
+        <v>100</v>
+      </c>
+      <c r="E49" s="5">
+        <v>2</v>
+      </c>
+      <c r="F49" s="6">
+        <v>100002</v>
+      </c>
+      <c r="G49" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A50" s="5">
+        <v>60224</v>
+      </c>
+      <c r="B50" s="5">
+        <v>601</v>
+      </c>
+      <c r="C50" s="5">
+        <v>24</v>
+      </c>
+      <c r="D50" s="5">
+        <v>100</v>
+      </c>
+      <c r="E50" s="5">
+        <v>2</v>
+      </c>
+      <c r="F50" s="6">
+        <v>100002</v>
+      </c>
+      <c r="G50" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A51" s="5">
+        <v>60225</v>
+      </c>
+      <c r="B51" s="5">
+        <v>601</v>
+      </c>
+      <c r="C51" s="5">
+        <v>25</v>
+      </c>
+      <c r="D51" s="5">
+        <v>100</v>
+      </c>
+      <c r="E51" s="5">
+        <v>2</v>
+      </c>
+      <c r="F51" s="6">
+        <v>100002</v>
+      </c>
+      <c r="G51" s="6">
         <v>30</v>
       </c>
     </row>
@@ -2329,38 +2513,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4561621-BAF4-4FB5-8F15-B71B1A49C200}">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10.5" customWidth="1"/>
-    <col min="2" max="2" width="10.75" customWidth="1"/>
+    <col min="2" max="2" width="10.69921875" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="42.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.8984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42.09765625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.375" customWidth="1"/>
-    <col min="11" max="12" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.3984375" customWidth="1"/>
+    <col min="11" max="12" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.09765625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.09765625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.09765625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.3984375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="44" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.69921875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="22.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2401,7 +2585,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" s="7">
         <v>601011</v>
       </c>
@@ -2442,7 +2626,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" s="7">
         <v>601021</v>
       </c>
@@ -2483,7 +2667,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" s="7">
         <v>601031</v>
       </c>
@@ -2524,7 +2708,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" s="7">
         <v>601041</v>
       </c>
@@ -2565,7 +2749,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" s="7">
         <v>601051</v>
       </c>
@@ -2606,7 +2790,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" s="7">
         <v>601061</v>
       </c>
@@ -2647,7 +2831,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8" s="7">
         <v>601071</v>
       </c>
@@ -2688,7 +2872,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9" s="5">
         <v>602111</v>
       </c>
@@ -2729,7 +2913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" s="5">
         <v>602112</v>
       </c>
@@ -2770,7 +2954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11" s="5">
         <v>602113</v>
       </c>
@@ -2811,7 +2995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12" s="5">
         <v>602114</v>
       </c>
@@ -2852,7 +3036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13" s="5">
         <v>602211</v>
       </c>
@@ -2893,7 +3077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14" s="5">
         <v>602212</v>
       </c>
@@ -2934,7 +3118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15" s="5">
         <v>602213</v>
       </c>
@@ -2975,7 +3159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16" s="5">
         <v>602214</v>
       </c>
@@ -3016,7 +3200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17" s="5">
         <v>602311</v>
       </c>
@@ -3057,7 +3241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" s="5">
         <v>602312</v>
       </c>
@@ -3098,7 +3282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" s="5">
         <v>602313</v>
       </c>
@@ -3139,7 +3323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" s="5">
         <v>602411</v>
       </c>
@@ -3180,7 +3364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21" s="5">
         <v>602412</v>
       </c>
@@ -3221,7 +3405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" s="5">
         <v>602413</v>
       </c>
@@ -3262,7 +3446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" s="5">
         <v>602414</v>
       </c>
@@ -3303,7 +3487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" s="5">
         <v>602415</v>
       </c>
@@ -3344,7 +3528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" s="5">
         <v>602511</v>
       </c>
@@ -3385,7 +3569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" s="5">
         <v>602512</v>
       </c>
@@ -3426,7 +3610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" s="5">
         <v>602513</v>
       </c>
@@ -3467,7 +3651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" s="5">
         <v>602611</v>
       </c>
@@ -3508,7 +3692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" s="5">
         <v>602612</v>
       </c>
@@ -3549,7 +3733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" s="5">
         <v>602613</v>
       </c>
@@ -3590,7 +3774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" s="5">
         <v>602614</v>
       </c>
@@ -3631,7 +3815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32" s="5">
         <v>602615</v>
       </c>
@@ -3672,7 +3856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" s="5">
         <v>602711</v>
       </c>
@@ -3713,7 +3897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" s="5">
         <v>602712</v>
       </c>
@@ -3754,7 +3938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35" s="5">
         <v>602713</v>
       </c>
@@ -3795,7 +3979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36" s="5">
         <v>602811</v>
       </c>
@@ -3836,7 +4020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" s="5">
         <v>602821</v>
       </c>

--- a/Client/Assets/11. GameData/Pass.xlsx
+++ b/Client/Assets/11. GameData/Pass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lcmbb\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D6AD29-A522-46E3-8707-8207F2A1C194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7480C2AA-35C7-455B-A3F3-404533CCB96B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="535" firstSheet="1" activeTab="1" xr2:uid="{E3B10073-6739-413D-9047-29D24A9ED330}"/>
+    <workbookView xWindow="9756" yWindow="600" windowWidth="13140" windowHeight="11460" tabRatio="535" firstSheet="2" activeTab="3" xr2:uid="{E3B10073-6739-413D-9047-29D24A9ED330}"/>
   </bookViews>
   <sheets>
     <sheet name="Pass_Info" sheetId="4" r:id="rId1"/>
@@ -647,7 +647,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -689,6 +689,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1251,8 +1254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC616978-B69C-4F7D-8301-6F88E773EBCB}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1314,8 +1317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A74E4F3-3BB8-4CF3-AC0A-3F86C309575D}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1943,11 +1946,11 @@
       <c r="E27" s="5">
         <v>2</v>
       </c>
-      <c r="F27" s="6">
-        <v>100002</v>
+      <c r="F27" s="14">
+        <v>201025</v>
       </c>
       <c r="G27" s="6">
-        <v>50</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
@@ -2513,8 +2516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4561621-BAF4-4FB5-8F15-B71B1A49C200}">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
